--- a/data/data-raw/Table of compounds_030622.xlsx
+++ b/data/data-raw/Table of compounds_030622.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_C9C3E2DFE6E5ECF5CE906EFDC2549BB3DEDA2518" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C2299E5-814C-491F-98C0-63B5A0166197}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7755"/>
+    <workbookView minimized="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
+    <sheet name="Experimental Design" sheetId="2" r:id="rId1"/>
+    <sheet name="Drugs Mapping" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="342">
   <si>
     <t>Samples</t>
   </si>
@@ -829,13 +831,229 @@
   </si>
   <si>
     <t>Connexin inhibitor</t>
+  </si>
+  <si>
+    <t>Samples_ID</t>
+  </si>
+  <si>
+    <t>OsiSor</t>
+  </si>
+  <si>
+    <t>Azacyt</t>
+  </si>
+  <si>
+    <t>Compou</t>
+  </si>
+  <si>
+    <t>LIMKi3</t>
+  </si>
+  <si>
+    <t>SBI020</t>
+  </si>
+  <si>
+    <t>phenyl</t>
+  </si>
+  <si>
+    <t>eFT508</t>
+  </si>
+  <si>
+    <t>U0126E</t>
+  </si>
+  <si>
+    <t>PROTAC</t>
+  </si>
+  <si>
+    <t>STO609</t>
+  </si>
+  <si>
+    <t>statti</t>
+  </si>
+  <si>
+    <t>ML210-</t>
+  </si>
+  <si>
+    <t>IMR1-</t>
+  </si>
+  <si>
+    <t>Y27632</t>
+  </si>
+  <si>
+    <t>L75550</t>
+  </si>
+  <si>
+    <t>XAV939</t>
+  </si>
+  <si>
+    <t>BMS536</t>
+  </si>
+  <si>
+    <t>JSH23</t>
+  </si>
+  <si>
+    <t>Contro</t>
+  </si>
+  <si>
+    <t>Osimer</t>
+  </si>
+  <si>
+    <t>Tramet</t>
+  </si>
+  <si>
+    <t>Pemetr</t>
+  </si>
+  <si>
+    <t>Gefiti</t>
+  </si>
+  <si>
+    <t>Cispla</t>
+  </si>
+  <si>
+    <t>Navito</t>
+  </si>
+  <si>
+    <t>CCT196</t>
+  </si>
+  <si>
+    <t>LY3009</t>
+  </si>
+  <si>
+    <t>Vorino</t>
+  </si>
+  <si>
+    <t>Napabu</t>
+  </si>
+  <si>
+    <t>AZD148</t>
+  </si>
+  <si>
+    <t>Bortez</t>
+  </si>
+  <si>
+    <t>Palboc</t>
+  </si>
+  <si>
+    <t>Olapar</t>
+  </si>
+  <si>
+    <t>Chloro</t>
+  </si>
+  <si>
+    <t>Bafilo</t>
+  </si>
+  <si>
+    <t>Doxoru</t>
+  </si>
+  <si>
+    <t>Spauti</t>
+  </si>
+  <si>
+    <t>Tazeme</t>
+  </si>
+  <si>
+    <t>Lenvat</t>
+  </si>
+  <si>
+    <t>Regora</t>
+  </si>
+  <si>
+    <t>Caboza</t>
+  </si>
+  <si>
+    <t>CGP573</t>
+  </si>
+  <si>
+    <t>Sorafe</t>
+  </si>
+  <si>
+    <t>Mitomy</t>
+  </si>
+  <si>
+    <t>Capiva</t>
+  </si>
+  <si>
+    <t>Phenfo</t>
+  </si>
+  <si>
+    <t>SHP099</t>
+  </si>
+  <si>
+    <t>Tunica</t>
+  </si>
+  <si>
+    <t>Thapsi</t>
+  </si>
+  <si>
+    <t>Erasti</t>
+  </si>
+  <si>
+    <t>Ferros</t>
+  </si>
+  <si>
+    <t>Defero</t>
+  </si>
+  <si>
+    <t>Lazert</t>
+  </si>
+  <si>
+    <t>Rocile</t>
+  </si>
+  <si>
+    <t>Mavele</t>
+  </si>
+  <si>
+    <t>Vemura</t>
+  </si>
+  <si>
+    <t>5Fluor</t>
+  </si>
+  <si>
+    <t>Oxalip</t>
+  </si>
+  <si>
+    <t>Carbop</t>
+  </si>
+  <si>
+    <t>Nigeri</t>
+  </si>
+  <si>
+    <t>Pralat</t>
+  </si>
+  <si>
+    <t>Methot</t>
+  </si>
+  <si>
+    <t>Paclit</t>
+  </si>
+  <si>
+    <t>Aliser</t>
+  </si>
+  <si>
+    <t>Saraca</t>
+  </si>
+  <si>
+    <t>AZD818</t>
+  </si>
+  <si>
+    <t>Temsir</t>
+  </si>
+  <si>
+    <t>CCT020</t>
+  </si>
+  <si>
+    <t>Levofl</t>
+  </si>
+  <si>
+    <t>Proben</t>
+  </si>
+  <si>
+    <t>Mefloq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,8 +1107,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -957,6 +1181,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="61">
     <border>
@@ -1706,7 +1936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="354">
+  <cellXfs count="350">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1722,15 +1952,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1812,9 +2039,9 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1899,108 +2126,6 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2013,24 +2138,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2047,7 +2157,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2072,35 +2181,11 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="53" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2113,19 +2198,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2136,12 +2209,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2151,9 +2218,6 @@
     <xf numFmtId="49" fontId="1" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2167,29 +2231,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2203,26 +2244,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
@@ -2236,12 +2261,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2254,65 +2273,26 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="9" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2326,8 +2306,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2341,9 +2319,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2351,21 +2326,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2374,15 +2334,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2393,17 +2344,335 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2424,6 +2693,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A9CE039-12FB-4A5F-A68F-777D338F2EE2}" name="Table1" displayName="Table1" ref="A1:B77" totalsRowShown="0">
+  <autoFilter ref="A1:B77" xr:uid="{1A9CE039-12FB-4A5F-A68F-777D338F2EE2}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C833621C-1E47-4C45-8F7B-9F496D081E23}" name="Samples" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{0569DB07-56D4-46A1-8998-DAE8B18F7DD3}" name="Samples_ID" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2688,57 +2968,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O254"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="68.5703125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="68.5703125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="68.54296875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="68.54296875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="31.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" customWidth="1"/>
+    <col min="8" max="8" width="45.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="38" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:9" s="35" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="33" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152" t="s">
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="277" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="291" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="250"/>
+      <c r="C2" s="295"/>
       <c r="D2" s="4">
         <v>2</v>
       </c>
@@ -2751,10 +3031,10 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="153"/>
-      <c r="B3" s="172"/>
-      <c r="C3" s="254"/>
+    <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="278"/>
+      <c r="B3" s="346"/>
+      <c r="C3" s="296"/>
       <c r="D3" s="4">
         <v>2</v>
       </c>
@@ -2767,10 +3047,10 @@
       </c>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="153"/>
-      <c r="B4" s="172"/>
-      <c r="C4" s="254"/>
+    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="278"/>
+      <c r="B4" s="346"/>
+      <c r="C4" s="296"/>
       <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
@@ -2783,10 +3063,10 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="153"/>
-      <c r="B5" s="172"/>
-      <c r="C5" s="254"/>
+    <row r="5" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="278"/>
+      <c r="B5" s="346"/>
+      <c r="C5" s="296"/>
       <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
@@ -2799,10 +3079,10 @@
       </c>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="153"/>
-      <c r="B6" s="172"/>
-      <c r="C6" s="254"/>
+    <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="278"/>
+      <c r="B6" s="346"/>
+      <c r="C6" s="296"/>
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
@@ -2815,10 +3095,10 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="153"/>
-      <c r="B7" s="172"/>
-      <c r="C7" s="254"/>
+    <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="278"/>
+      <c r="B7" s="346"/>
+      <c r="C7" s="296"/>
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
@@ -2831,103 +3111,103 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="153"/>
-      <c r="B8" s="172"/>
-      <c r="C8" s="254"/>
-      <c r="D8" s="146" t="s">
+    <row r="8" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="278"/>
+      <c r="B8" s="346"/>
+      <c r="C8" s="296"/>
+      <c r="D8" s="264" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146" t="s">
+      <c r="E8" s="264"/>
+      <c r="F8" s="264" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="146" t="s">
+      <c r="G8" s="264" t="s">
         <v>153</v>
       </c>
-      <c r="H8" s="147" t="s">
+      <c r="H8" s="266" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="153"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="254"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="149"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="153"/>
-      <c r="B10" s="172"/>
-      <c r="C10" s="274"/>
+    <row r="9" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="278"/>
+      <c r="B9" s="346"/>
+      <c r="C9" s="296"/>
+      <c r="D9" s="265"/>
+      <c r="E9" s="265"/>
+      <c r="F9" s="265"/>
+      <c r="G9" s="265"/>
+      <c r="H9" s="267"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="278"/>
+      <c r="B10" s="346"/>
+      <c r="C10" s="297"/>
       <c r="D10" s="270" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="283"/>
+      <c r="E10" s="272"/>
       <c r="F10" s="270" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="270" t="s">
         <v>153</v>
       </c>
-      <c r="H10" s="271" t="s">
+      <c r="H10" s="275" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="153"/>
-      <c r="B11" s="172"/>
-      <c r="C11" s="274"/>
-      <c r="D11" s="276"/>
-      <c r="E11" s="284"/>
-      <c r="F11" s="273"/>
-      <c r="G11" s="273"/>
-      <c r="H11" s="277"/>
-      <c r="I11" s="278"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="153"/>
-      <c r="B12" s="172"/>
-      <c r="C12" s="274"/>
-      <c r="D12" s="275" t="s">
+    <row r="11" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="278"/>
+      <c r="B11" s="346"/>
+      <c r="C11" s="297"/>
+      <c r="D11" s="271"/>
+      <c r="E11" s="273"/>
+      <c r="F11" s="274"/>
+      <c r="G11" s="274"/>
+      <c r="H11" s="276"/>
+      <c r="I11" s="205"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="278"/>
+      <c r="B12" s="346"/>
+      <c r="C12" s="297"/>
+      <c r="D12" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="281"/>
-      <c r="F12" s="178" t="s">
+      <c r="E12" s="208"/>
+      <c r="F12" s="141" t="s">
         <v>199</v>
       </c>
-      <c r="G12" s="178" t="s">
+      <c r="G12" s="141" t="s">
         <v>200</v>
       </c>
-      <c r="H12" s="279"/>
-      <c r="I12" s="278"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="153"/>
-      <c r="B13" s="173"/>
-      <c r="C13" s="255"/>
-      <c r="D13" s="272" t="s">
+      <c r="H12" s="206"/>
+      <c r="I12" s="205"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="278"/>
+      <c r="B13" s="347"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="203" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="282"/>
-      <c r="F13" s="272" t="s">
+      <c r="E13" s="209"/>
+      <c r="F13" s="203" t="s">
         <v>231</v>
       </c>
-      <c r="G13" s="272" t="s">
+      <c r="G13" s="203" t="s">
         <v>257</v>
       </c>
-      <c r="H13" s="280"/>
-      <c r="I13" s="278"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="153"/>
-      <c r="B14" s="171" t="s">
+      <c r="H13" s="207"/>
+      <c r="I13" s="205"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="278"/>
+      <c r="B14" s="291" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="250"/>
+      <c r="C14" s="295"/>
       <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
@@ -2940,10 +3220,10 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="153"/>
-      <c r="B15" s="174"/>
-      <c r="C15" s="251"/>
+    <row r="15" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="278"/>
+      <c r="B15" s="292"/>
+      <c r="C15" s="322"/>
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
@@ -2956,10 +3236,10 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="153"/>
-      <c r="B16" s="174"/>
-      <c r="C16" s="251"/>
+    <row r="16" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="278"/>
+      <c r="B16" s="292"/>
+      <c r="C16" s="322"/>
       <c r="D16" s="5" t="s">
         <v>18</v>
       </c>
@@ -2972,10 +3252,10 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="153"/>
-      <c r="B17" s="174"/>
-      <c r="C17" s="251"/>
+    <row r="17" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="278"/>
+      <c r="B17" s="292"/>
+      <c r="C17" s="322"/>
       <c r="D17" s="5" t="s">
         <v>18</v>
       </c>
@@ -2988,10 +3268,10 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="153"/>
-      <c r="B18" s="174"/>
-      <c r="C18" s="251"/>
+    <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="278"/>
+      <c r="B18" s="292"/>
+      <c r="C18" s="322"/>
       <c r="D18" s="5" t="s">
         <v>18</v>
       </c>
@@ -3004,10 +3284,10 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="153"/>
-      <c r="B19" s="174"/>
-      <c r="C19" s="251"/>
+    <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="278"/>
+      <c r="B19" s="292"/>
+      <c r="C19" s="322"/>
       <c r="D19" s="5" t="s">
         <v>18</v>
       </c>
@@ -3020,558 +3300,549 @@
       </c>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="153"/>
-      <c r="B20" s="174"/>
-      <c r="C20" s="252"/>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="278"/>
+      <c r="B20" s="292"/>
+      <c r="C20" s="323"/>
       <c r="D20" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28" t="s">
+      <c r="E20" s="25"/>
+      <c r="F20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="23" t="s">
         <v>24</v>
       </c>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="153"/>
-      <c r="B21" s="174"/>
-      <c r="C21" s="252"/>
-      <c r="D21" s="144" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144" t="s">
+    <row r="21" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="278"/>
+      <c r="B21" s="292"/>
+      <c r="C21" s="323"/>
+      <c r="D21" s="255" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="255"/>
+      <c r="F21" s="255" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="144" t="s">
+      <c r="G21" s="255" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="182" t="s">
+      <c r="H21" s="257" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="153"/>
-      <c r="B22" s="174"/>
-      <c r="C22" s="252"/>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="183"/>
-      <c r="I22" s="23"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="153"/>
-      <c r="B23" s="174"/>
-      <c r="C23" s="252"/>
-      <c r="D23" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24" t="s">
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="278"/>
+      <c r="B22" s="292"/>
+      <c r="C22" s="323"/>
+      <c r="D22" s="256"/>
+      <c r="E22" s="256"/>
+      <c r="F22" s="256"/>
+      <c r="G22" s="256"/>
+      <c r="H22" s="258"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="278"/>
+      <c r="B23" s="292"/>
+      <c r="C23" s="323"/>
+      <c r="D23" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="H23" s="180"/>
-      <c r="I23" s="23"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="153"/>
-      <c r="B24" s="174"/>
-      <c r="C24" s="252"/>
-      <c r="D24" s="179" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="179"/>
-      <c r="F24" s="179" t="s">
+      <c r="H23" s="143"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="278"/>
+      <c r="B24" s="292"/>
+      <c r="C24" s="323"/>
+      <c r="D24" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142" t="s">
         <v>231</v>
       </c>
-      <c r="G24" s="179" t="s">
+      <c r="G24" s="142" t="s">
         <v>221</v>
       </c>
-      <c r="H24" s="181"/>
-      <c r="I24" s="23"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="154"/>
-      <c r="B25" s="174"/>
-      <c r="C25" s="253"/>
-      <c r="D25" s="123" t="s">
+      <c r="H24" s="144"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="279"/>
+      <c r="B25" s="292"/>
+      <c r="C25" s="324"/>
+      <c r="D25" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123" t="s">
+      <c r="E25" s="120"/>
+      <c r="F25" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="123" t="s">
+      <c r="G25" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="124" t="s">
+      <c r="H25" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="23"/>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="175" t="s">
+    </row>
+    <row r="26" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="325" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="215" t="s">
+      <c r="B26" s="293" t="s">
         <v>146</v>
       </c>
-      <c r="C26" s="248" t="s">
+      <c r="C26" s="301" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="125" t="s">
+      <c r="D26" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="143" t="s">
+      <c r="E26" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="125" t="s">
+      <c r="F26" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="125" t="s">
+      <c r="G26" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="127" t="s">
+      <c r="H26" s="124" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="176"/>
-      <c r="B27" s="256"/>
-      <c r="C27" s="213"/>
-      <c r="D27" s="128" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="126" t="s">
+    <row r="27" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="326"/>
+      <c r="B27" s="331"/>
+      <c r="C27" s="302"/>
+      <c r="D27" s="125" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="129" t="s">
+      <c r="F27" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="129" t="s">
+      <c r="G27" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="130"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="176"/>
-      <c r="B28" s="256"/>
-      <c r="C28" s="213"/>
-      <c r="D28" s="131" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="129" t="s">
+      <c r="H27" s="127"/>
+    </row>
+    <row r="28" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="326"/>
+      <c r="B28" s="331"/>
+      <c r="C28" s="302"/>
+      <c r="D28" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="129" t="s">
+      <c r="F28" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="129" t="s">
+      <c r="G28" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="132"/>
-    </row>
-    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="176"/>
-      <c r="B29" s="256"/>
-      <c r="C29" s="213"/>
-      <c r="D29" s="131" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="133" t="s">
+      <c r="H28" s="129"/>
+    </row>
+    <row r="29" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="326"/>
+      <c r="B29" s="331"/>
+      <c r="C29" s="302"/>
+      <c r="D29" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="133" t="s">
+      <c r="F29" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="134" t="s">
+      <c r="G29" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="H29" s="132"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="176"/>
-      <c r="B30" s="256"/>
-      <c r="C30" s="213"/>
-      <c r="D30" s="131" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="133" t="s">
+      <c r="H29" s="129"/>
+    </row>
+    <row r="30" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="326"/>
+      <c r="B30" s="331"/>
+      <c r="C30" s="302"/>
+      <c r="D30" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="133" t="s">
+      <c r="F30" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="134" t="s">
+      <c r="G30" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="132"/>
-    </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="176"/>
-      <c r="B31" s="256"/>
-      <c r="C31" s="213"/>
-      <c r="D31" s="131" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="133" t="s">
+      <c r="H30" s="129"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="326"/>
+      <c r="B31" s="331"/>
+      <c r="C31" s="302"/>
+      <c r="D31" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="133" t="s">
+      <c r="F31" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="134" t="s">
+      <c r="G31" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="132"/>
-    </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="176"/>
-      <c r="B32" s="256"/>
-      <c r="C32" s="213"/>
-      <c r="D32" s="131" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="131" t="s">
+      <c r="H31" s="129"/>
+    </row>
+    <row r="32" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="326"/>
+      <c r="B32" s="331"/>
+      <c r="C32" s="302"/>
+      <c r="D32" s="128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="133" t="s">
+      <c r="F32" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="134" t="s">
+      <c r="G32" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="132"/>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="176"/>
-      <c r="B33" s="256"/>
-      <c r="C33" s="249"/>
-      <c r="D33" s="209" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="209" t="s">
+      <c r="H32" s="129"/>
+    </row>
+    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="326"/>
+      <c r="B33" s="331"/>
+      <c r="C33" s="303"/>
+      <c r="D33" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="209" t="s">
+      <c r="F33" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="210" t="s">
+      <c r="G33" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="211"/>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="176"/>
-      <c r="B34" s="256"/>
-      <c r="C34" s="141" t="s">
+      <c r="H33" s="168"/>
+    </row>
+    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="326"/>
+      <c r="B34" s="331"/>
+      <c r="C34" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="257" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="258" t="s">
+      <c r="D34" s="190" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="258" t="s">
+      <c r="F34" s="191" t="s">
         <v>16</v>
       </c>
-      <c r="G34" s="257" t="s">
+      <c r="G34" s="190" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="260" t="s">
+      <c r="H34" s="193" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="176"/>
-      <c r="B35" s="256"/>
-      <c r="C35" s="246" t="s">
+    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="326"/>
+      <c r="B35" s="331"/>
+      <c r="C35" s="188" t="s">
         <v>214</v>
       </c>
-      <c r="D35" s="257" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="257" t="s">
+      <c r="D35" s="190" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="190" t="s">
         <v>217</v>
       </c>
-      <c r="F35" s="135" t="s">
+      <c r="F35" s="132" t="s">
         <v>199</v>
       </c>
-      <c r="G35" s="135" t="s">
+      <c r="G35" s="132" t="s">
         <v>200</v>
       </c>
-      <c r="H35" s="261"/>
-    </row>
-    <row r="36" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="176"/>
-      <c r="B36" s="256"/>
-      <c r="C36" s="246" t="s">
+      <c r="H35" s="194"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="326"/>
+      <c r="B36" s="331"/>
+      <c r="C36" s="188" t="s">
         <v>215</v>
       </c>
-      <c r="D36" s="257" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="259" t="s">
+      <c r="D36" s="190" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="192" t="s">
         <v>217</v>
       </c>
-      <c r="F36" s="139" t="s">
+      <c r="F36" s="136" t="s">
         <v>199</v>
       </c>
-      <c r="G36" s="247" t="s">
+      <c r="G36" s="189" t="s">
         <v>200</v>
       </c>
-      <c r="H36" s="261"/>
-    </row>
-    <row r="37" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="176"/>
-      <c r="B37" s="216"/>
-      <c r="C37" s="208" t="s">
+      <c r="H36" s="194"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="326"/>
+      <c r="B37" s="294"/>
+      <c r="C37" s="165" t="s">
         <v>216</v>
       </c>
-      <c r="D37" s="258" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="207" t="s">
+      <c r="D37" s="191" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="164" t="s">
         <v>217</v>
       </c>
-      <c r="F37" s="257" t="s">
+      <c r="F37" s="190" t="s">
         <v>199</v>
       </c>
-      <c r="G37" s="257" t="s">
+      <c r="G37" s="190" t="s">
         <v>200</v>
       </c>
-      <c r="H37" s="262"/>
-    </row>
-    <row r="38" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="176"/>
-      <c r="B38" s="215" t="s">
+      <c r="H37" s="195"/>
+    </row>
+    <row r="38" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="326"/>
+      <c r="B38" s="293" t="s">
         <v>147</v>
       </c>
-      <c r="C38" s="213" t="s">
+      <c r="C38" s="302" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="128" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="129" t="s">
+      <c r="D38" s="125" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="129" t="s">
+      <c r="F38" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="142" t="s">
+      <c r="G38" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="H38" s="130"/>
-      <c r="J38" s="23"/>
-    </row>
-    <row r="39" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="176"/>
-      <c r="B39" s="216"/>
-      <c r="C39" s="213"/>
-      <c r="D39" s="135" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="136" t="s">
+      <c r="H38" s="127"/>
+    </row>
+    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="326"/>
+      <c r="B39" s="294"/>
+      <c r="C39" s="302"/>
+      <c r="D39" s="132" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="136" t="s">
+      <c r="F39" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="137" t="s">
+      <c r="G39" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="138"/>
-    </row>
-    <row r="40" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="177"/>
-      <c r="B40" s="214" t="s">
+      <c r="H39" s="135"/>
+    </row>
+    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="327"/>
+      <c r="B40" s="170" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="212" t="s">
+      <c r="C40" s="169" t="s">
         <v>145</v>
       </c>
-      <c r="D40" s="139" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="140" t="s">
+      <c r="D40" s="136" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="140" t="s">
+      <c r="F40" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="141" t="s">
+      <c r="G40" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="H40" s="263"/>
+      <c r="H40" s="196"/>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-    </row>
-    <row r="41" spans="1:15" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="31" t="s">
+    </row>
+    <row r="41" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="111"/>
-      <c r="C41" s="29" t="s">
+      <c r="B41" s="108"/>
+      <c r="C41" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="29" t="s">
+      <c r="D41" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F41" s="29" t="s">
+      <c r="F41" s="26" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H41" s="266" t="s">
+      <c r="H41" s="199" t="s">
         <v>91</v>
       </c>
-      <c r="I41" s="23"/>
-    </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="168" t="s">
+    </row>
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="332" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="225"/>
-      <c r="C42" s="221" t="s">
+      <c r="B42" s="174"/>
+      <c r="C42" s="348" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="67" t="s">
+      <c r="D42" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="67" t="s">
+      <c r="F42" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="68" t="s">
+      <c r="G42" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H42" s="264"/>
-      <c r="I42" s="23"/>
-    </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="169"/>
-      <c r="B43" s="225"/>
-      <c r="C43" s="222"/>
-      <c r="D43" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="70" t="s">
+      <c r="H42" s="197"/>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="333"/>
+      <c r="B43" s="174"/>
+      <c r="C43" s="349"/>
+      <c r="D43" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="70" t="s">
+      <c r="F43" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="71" t="s">
+      <c r="G43" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="265"/>
-    </row>
-    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="169"/>
-      <c r="B44" s="225"/>
-      <c r="C44" s="221" t="s">
+      <c r="H43" s="198"/>
+    </row>
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="333"/>
+      <c r="B44" s="174"/>
+      <c r="C44" s="348" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="67" t="s">
+      <c r="D44" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="67" t="s">
+      <c r="F44" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="68" t="s">
+      <c r="G44" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="264"/>
-    </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="169"/>
-      <c r="B45" s="225"/>
-      <c r="C45" s="222"/>
-      <c r="D45" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="70" t="s">
+      <c r="H44" s="197"/>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="333"/>
+      <c r="B45" s="174"/>
+      <c r="C45" s="349"/>
+      <c r="D45" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="70" t="s">
+      <c r="F45" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="71" t="s">
+      <c r="G45" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="265"/>
-    </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="169"/>
-      <c r="B46" s="286"/>
-      <c r="C46" s="287" t="s">
+      <c r="H45" s="198"/>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="333"/>
+      <c r="B46" s="211"/>
+      <c r="C46" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="D46" s="288" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="287" t="s">
+      <c r="D46" s="213" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="289" t="s">
+      <c r="F46" s="214" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="290" t="s">
+      <c r="G46" s="215" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="291"/>
-    </row>
-    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="170"/>
-      <c r="B47" s="112"/>
-      <c r="C47" s="73" t="s">
+      <c r="H46" s="216"/>
+    </row>
+    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="334"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="70" t="s">
         <v>218</v>
       </c>
-      <c r="D47" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="73" t="s">
+      <c r="D47" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="F47" s="72" t="s">
+      <c r="F47" s="69" t="s">
         <v>199</v>
       </c>
-      <c r="G47" s="74" t="s">
+      <c r="G47" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="H47" s="75"/>
-    </row>
-    <row r="48" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="153" t="s">
+      <c r="H47" s="72"/>
+    </row>
+    <row r="48" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="278" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="113"/>
-      <c r="C48" s="223" t="s">
+      <c r="B48" s="110"/>
+      <c r="C48" s="304" t="s">
         <v>45</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -3580,18 +3851,18 @@
       <c r="E48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="285" t="s">
+      <c r="F48" s="210" t="s">
         <v>6</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H48" s="267"/>
-    </row>
-    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="153"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="223"/>
+      <c r="H48" s="200"/>
+    </row>
+    <row r="49" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="278"/>
+      <c r="B49" s="110"/>
+      <c r="C49" s="304"/>
       <c r="D49" s="5" t="s">
         <v>18</v>
       </c>
@@ -3606,17 +3877,17 @@
       </c>
       <c r="H49" s="8"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="153"/>
-      <c r="B50" s="113"/>
-      <c r="C50" s="223"/>
+    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="278"/>
+      <c r="B50" s="110"/>
+      <c r="C50" s="304"/>
       <c r="D50" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="26" t="s">
+      <c r="F50" s="23" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="12" t="s">
@@ -3624,1167 +3895,1167 @@
       </c>
       <c r="H50" s="12"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="154"/>
-      <c r="B51" s="226"/>
-      <c r="C51" s="39" t="s">
+    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="279"/>
+      <c r="B51" s="175"/>
+      <c r="C51" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="45">
+      <c r="D51" s="42">
         <v>4</v>
       </c>
-      <c r="E51" s="39" t="s">
+      <c r="E51" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F51" s="40" t="s">
+      <c r="F51" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G51" s="45" t="s">
+      <c r="G51" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H51" s="45"/>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="166" t="s">
+      <c r="H51" s="42"/>
+    </row>
+    <row r="52" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="299" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="114" t="s">
+      <c r="B52" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="224" t="s">
+      <c r="C52" s="173" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="76" t="s">
+      <c r="D52" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="F52" s="77" t="s">
+      <c r="F52" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="G52" s="76" t="s">
+      <c r="G52" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="H52" s="76" t="s">
+      <c r="H52" s="73" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="167"/>
-      <c r="B53" s="115" t="s">
+    <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="300"/>
+      <c r="B53" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="79" t="s">
+      <c r="C53" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="79" t="s">
+      <c r="D53" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="80" t="s">
+      <c r="F53" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="78" t="s">
+      <c r="G53" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="H53" s="78" t="s">
+      <c r="H53" s="75" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="32" t="s">
+    <row r="54" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="227"/>
-      <c r="C54" s="48" t="s">
+      <c r="B54" s="176"/>
+      <c r="C54" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="46" t="s">
+      <c r="D54" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="F54" s="47" t="s">
+      <c r="F54" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="46" t="s">
+      <c r="G54" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="H54" s="46" t="s">
+      <c r="H54" s="43" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="344" t="s">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="343" t="s">
         <v>152</v>
       </c>
-      <c r="B55" s="336" t="s">
+      <c r="B55" s="338" t="s">
         <v>149</v>
       </c>
-      <c r="C55" s="218" t="s">
+      <c r="C55" s="285" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="60" t="s">
+      <c r="D55" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="F55" s="61" t="s">
+      <c r="F55" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G55" s="60" t="s">
+      <c r="G55" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H55" s="60"/>
-    </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="345"/>
-      <c r="B56" s="337"/>
-      <c r="C56" s="220"/>
-      <c r="D56" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="49" t="s">
+      <c r="H55" s="57"/>
+    </row>
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="344"/>
+      <c r="B56" s="339"/>
+      <c r="C56" s="286"/>
+      <c r="D56" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="F56" s="50" t="s">
+      <c r="F56" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G56" s="49" t="s">
+      <c r="G56" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H56" s="49"/>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="345"/>
-      <c r="B57" s="337"/>
-      <c r="C57" s="219"/>
-      <c r="D57" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="62" t="s">
+      <c r="H56" s="46"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="344"/>
+      <c r="B57" s="339"/>
+      <c r="C57" s="287"/>
+      <c r="D57" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="F57" s="63" t="s">
+      <c r="F57" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="62" t="s">
+      <c r="G57" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="H57" s="62"/>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="345"/>
-      <c r="B58" s="338"/>
-      <c r="C58" s="329" t="s">
+      <c r="H57" s="59"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="344"/>
+      <c r="B58" s="340"/>
+      <c r="C58" s="239" t="s">
         <v>228</v>
       </c>
-      <c r="D58" s="326" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="326" t="s">
+      <c r="D58" s="236" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="236" t="s">
         <v>48</v>
       </c>
-      <c r="F58" s="326" t="s">
+      <c r="F58" s="236" t="s">
         <v>231</v>
       </c>
-      <c r="G58" s="326" t="s">
+      <c r="G58" s="236" t="s">
         <v>221</v>
       </c>
-      <c r="H58" s="326"/>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="345"/>
-      <c r="B59" s="339"/>
-      <c r="C59" s="329" t="s">
+      <c r="H58" s="236"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="344"/>
+      <c r="B59" s="341"/>
+      <c r="C59" s="239" t="s">
         <v>229</v>
       </c>
-      <c r="D59" s="326" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="326" t="s">
+      <c r="D59" s="236" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="236" t="s">
         <v>230</v>
       </c>
-      <c r="F59" s="326" t="s">
+      <c r="F59" s="236" t="s">
         <v>231</v>
       </c>
-      <c r="G59" s="326" t="s">
+      <c r="G59" s="236" t="s">
         <v>221</v>
       </c>
-      <c r="H59" s="326"/>
-    </row>
-    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="345"/>
-      <c r="B60" s="336" t="s">
+      <c r="H59" s="236"/>
+    </row>
+    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="344"/>
+      <c r="B60" s="338" t="s">
         <v>150</v>
       </c>
-      <c r="C60" s="218" t="s">
+      <c r="C60" s="285" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="60" t="s">
+      <c r="D60" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="F60" s="61" t="s">
+      <c r="F60" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="G60" s="60" t="s">
+      <c r="G60" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="H60" s="60"/>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="345"/>
-      <c r="B61" s="337"/>
-      <c r="C61" s="219"/>
-      <c r="D61" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="62" t="s">
+      <c r="H60" s="57"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="344"/>
+      <c r="B61" s="339"/>
+      <c r="C61" s="287"/>
+      <c r="D61" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="F61" s="64" t="s">
+      <c r="F61" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="G61" s="62" t="s">
+      <c r="G61" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="H61" s="62"/>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="345"/>
-      <c r="B62" s="337"/>
-      <c r="C62" s="330" t="s">
+      <c r="H61" s="59"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="344"/>
+      <c r="B62" s="339"/>
+      <c r="C62" s="172" t="s">
         <v>232</v>
       </c>
-      <c r="D62" s="331" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="332" t="s">
+      <c r="D62" s="240" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="241" t="s">
         <v>31</v>
       </c>
-      <c r="F62" s="334" t="s">
+      <c r="F62" s="243" t="s">
         <v>199</v>
       </c>
-      <c r="G62" s="65" t="s">
+      <c r="G62" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="H62" s="65"/>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="345"/>
-      <c r="B63" s="340"/>
-      <c r="C63" s="330" t="s">
+      <c r="H62" s="62"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="344"/>
+      <c r="B63" s="342"/>
+      <c r="C63" s="172" t="s">
         <v>233</v>
       </c>
-      <c r="D63" s="331" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="332" t="s">
+      <c r="D63" s="240" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="241" t="s">
         <v>55</v>
       </c>
-      <c r="F63" s="333" t="s">
+      <c r="F63" s="242" t="s">
         <v>199</v>
       </c>
-      <c r="G63" s="332" t="s">
+      <c r="G63" s="241" t="s">
         <v>221</v>
       </c>
-      <c r="H63" s="332"/>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="345"/>
-      <c r="B64" s="341" t="s">
+      <c r="H63" s="241"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="344"/>
+      <c r="B64" s="245" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="65" t="s">
+      <c r="C64" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="D64" s="217" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="65" t="s">
+      <c r="D64" s="171" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="F64" s="65" t="s">
+      <c r="F64" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="G64" s="65" t="s">
+      <c r="G64" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="H64" s="65"/>
-    </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="345"/>
-      <c r="B65" s="342" t="s">
+      <c r="H64" s="62"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="344"/>
+      <c r="B65" s="246" t="s">
         <v>171</v>
       </c>
-      <c r="C65" s="230" t="s">
+      <c r="C65" s="177" t="s">
         <v>101</v>
       </c>
-      <c r="D65" s="230" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="230" t="s">
+      <c r="D65" s="177" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="177" t="s">
         <v>102</v>
       </c>
-      <c r="F65" s="65" t="s">
+      <c r="F65" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="G65" s="230" t="s">
+      <c r="G65" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="H65" s="230"/>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="345"/>
-      <c r="B66" s="343" t="s">
+      <c r="H65" s="177"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="344"/>
+      <c r="B66" s="247" t="s">
         <v>234</v>
       </c>
-      <c r="C66" s="65" t="s">
+      <c r="C66" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="D66" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="65" t="s">
+      <c r="D66" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="F66" s="333" t="s">
+      <c r="F66" s="242" t="s">
         <v>199</v>
       </c>
-      <c r="G66" s="65" t="s">
+      <c r="G66" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="H66" s="65"/>
-    </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="346"/>
-      <c r="B67" s="335" t="s">
+      <c r="H66" s="62"/>
+    </row>
+    <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="345"/>
+      <c r="B67" s="244" t="s">
         <v>238</v>
       </c>
-      <c r="C67" s="331" t="s">
+      <c r="C67" s="240" t="s">
         <v>236</v>
       </c>
-      <c r="D67" s="332" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="332" t="s">
+      <c r="D67" s="241" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="241" t="s">
         <v>237</v>
       </c>
-      <c r="F67" s="333" t="s">
+      <c r="F67" s="242" t="s">
         <v>231</v>
       </c>
-      <c r="G67" s="332" t="s">
+      <c r="G67" s="241" t="s">
         <v>221</v>
       </c>
-      <c r="H67" s="332"/>
-    </row>
-    <row r="68" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="152" t="s">
+      <c r="H67" s="241"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="277" t="s">
         <v>154</v>
       </c>
-      <c r="B68" s="328" t="s">
+      <c r="B68" s="238" t="s">
         <v>195</v>
       </c>
-      <c r="C68" s="327" t="s">
+      <c r="C68" s="237" t="s">
         <v>66</v>
       </c>
-      <c r="D68" s="324" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="324" t="s">
+      <c r="D68" s="234" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="234" t="s">
         <v>88</v>
       </c>
-      <c r="F68" s="325" t="s">
+      <c r="F68" s="235" t="s">
         <v>8</v>
       </c>
-      <c r="G68" s="324" t="s">
+      <c r="G68" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="H68" s="324"/>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="153"/>
-      <c r="B69" s="310" t="s">
+      <c r="H68" s="234"/>
+    </row>
+    <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="278"/>
+      <c r="B69" s="288" t="s">
         <v>196</v>
       </c>
-      <c r="C69" s="45" t="s">
+      <c r="C69" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D69" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="45" t="s">
+      <c r="D69" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F69" s="40" t="s">
+      <c r="F69" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G69" s="45" t="s">
+      <c r="G69" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H69" s="45"/>
-    </row>
-    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="153"/>
-      <c r="B70" s="311"/>
-      <c r="C70" s="45" t="s">
+      <c r="H69" s="42"/>
+    </row>
+    <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="278"/>
+      <c r="B70" s="289"/>
+      <c r="C70" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="D70" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="45" t="s">
+      <c r="D70" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F70" s="40" t="s">
+      <c r="F70" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G70" s="45" t="s">
+      <c r="G70" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="H70" s="45"/>
-    </row>
-    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="153"/>
-      <c r="B71" s="311"/>
-      <c r="C71" s="45" t="s">
+      <c r="H70" s="42"/>
+    </row>
+    <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="278"/>
+      <c r="B71" s="289"/>
+      <c r="C71" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="D71" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" s="45" t="s">
+      <c r="D71" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F71" s="40" t="s">
+      <c r="F71" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G71" s="45" t="s">
+      <c r="G71" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="H71" s="45" t="s">
+      <c r="H71" s="42" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="153"/>
-      <c r="B72" s="312"/>
-      <c r="C72" s="45" t="s">
+    <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="278"/>
+      <c r="B72" s="290"/>
+      <c r="C72" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D72" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="45" t="s">
+      <c r="D72" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="F72" s="40" t="s">
+      <c r="F72" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G72" s="45" t="s">
+      <c r="G72" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="H72" s="45" t="s">
+      <c r="H72" s="42" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="154"/>
-      <c r="B73" s="309" t="s">
+    <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="279"/>
+      <c r="B73" s="224" t="s">
         <v>197</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D73" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="25" t="s">
+      <c r="D73" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="22" t="s">
         <v>71</v>
       </c>
       <c r="F73" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G73" s="25" t="s">
+      <c r="G73" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="H73" s="25"/>
-    </row>
-    <row r="74" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="306" t="s">
+      <c r="H73" s="22"/>
+    </row>
+    <row r="74" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="314" t="s">
         <v>160</v>
       </c>
-      <c r="B74" s="302" t="s">
+      <c r="B74" s="312" t="s">
         <v>155</v>
       </c>
-      <c r="C74" s="228" t="s">
+      <c r="C74" s="310" t="s">
         <v>75</v>
       </c>
-      <c r="D74" s="81" t="s">
+      <c r="D74" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="E74" s="81" t="s">
+      <c r="E74" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="F74" s="82" t="s">
+      <c r="F74" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="G74" s="81" t="s">
+      <c r="G74" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="H74" s="81" t="s">
+      <c r="H74" s="78" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="307"/>
-      <c r="B75" s="303"/>
-      <c r="C75" s="229"/>
-      <c r="D75" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" s="83" t="s">
+    <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="315"/>
+      <c r="B75" s="313"/>
+      <c r="C75" s="311"/>
+      <c r="D75" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="F75" s="84" t="s">
+      <c r="F75" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="G75" s="85" t="s">
+      <c r="G75" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="H75" s="85"/>
-    </row>
-    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="307"/>
-      <c r="B76" s="304" t="s">
+      <c r="H75" s="82"/>
+    </row>
+    <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="315"/>
+      <c r="B76" s="222" t="s">
         <v>156</v>
       </c>
-      <c r="C76" s="86" t="s">
+      <c r="C76" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D76" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" s="86" t="s">
+      <c r="D76" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="F76" s="87" t="s">
+      <c r="F76" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="G76" s="86" t="s">
+      <c r="G76" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="H76" s="86"/>
-    </row>
-    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="307"/>
-      <c r="B77" s="305" t="s">
+      <c r="H76" s="83"/>
+    </row>
+    <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="315"/>
+      <c r="B77" s="223" t="s">
         <v>157</v>
       </c>
-      <c r="C77" s="86" t="s">
+      <c r="C77" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="D77" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="E77" s="86" t="s">
+      <c r="D77" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="F77" s="87" t="s">
+      <c r="F77" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="G77" s="86" t="s">
+      <c r="G77" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="H77" s="86"/>
-    </row>
-    <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="307"/>
-      <c r="B78" s="305" t="s">
+      <c r="H77" s="83"/>
+    </row>
+    <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="315"/>
+      <c r="B78" s="223" t="s">
         <v>158</v>
       </c>
-      <c r="C78" s="86" t="s">
+      <c r="C78" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="D78" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="E78" s="86" t="s">
+      <c r="D78" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="F78" s="87" t="s">
+      <c r="F78" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="G78" s="86" t="s">
+      <c r="G78" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="H78" s="86"/>
-    </row>
-    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="308"/>
-      <c r="B79" s="305" t="s">
+      <c r="H78" s="83"/>
+    </row>
+    <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="316"/>
+      <c r="B79" s="223" t="s">
         <v>159</v>
       </c>
-      <c r="C79" s="88" t="s">
+      <c r="C79" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="D79" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="88" t="s">
+      <c r="D79" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="F79" s="89" t="s">
+      <c r="F79" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="G79" s="88" t="s">
+      <c r="G79" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="H79" s="88" t="s">
+      <c r="H79" s="85" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="152" t="s">
+    <row r="80" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="277" t="s">
         <v>161</v>
       </c>
-      <c r="B80" s="300" t="s">
+      <c r="B80" s="220" t="s">
         <v>162</v>
       </c>
-      <c r="C80" s="39" t="s">
+      <c r="C80" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D80" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="45" t="s">
+      <c r="D80" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="F80" s="40" t="s">
+      <c r="F80" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G80" s="45" t="s">
+      <c r="G80" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H80" s="45"/>
-    </row>
-    <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="154"/>
-      <c r="B81" s="301" t="s">
+      <c r="H80" s="42"/>
+    </row>
+    <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="279"/>
+      <c r="B81" s="221" t="s">
         <v>163</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D81" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E81" s="18" t="s">
+      <c r="D81" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F81" s="19" t="s">
+      <c r="F81" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G81" s="18" t="s">
+      <c r="G81" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H81" s="18" t="s">
+      <c r="H81" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="161" t="s">
+    <row r="82" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="319" t="s">
         <v>166</v>
       </c>
-      <c r="B82" s="159" t="s">
+      <c r="B82" s="317" t="s">
         <v>164</v>
       </c>
-      <c r="C82" s="52" t="s">
+      <c r="C82" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="D82" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="51" t="s">
+      <c r="D82" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="F82" s="59" t="s">
+      <c r="F82" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="G82" s="51" t="s">
+      <c r="G82" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="H82" s="51"/>
-    </row>
-    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="162"/>
-      <c r="B83" s="160"/>
-      <c r="C83" s="54" t="s">
+      <c r="H82" s="48"/>
+    </row>
+    <row r="83" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="320"/>
+      <c r="B83" s="318"/>
+      <c r="C83" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="D83" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="53" t="s">
+      <c r="D83" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="F83" s="55" t="s">
+      <c r="F83" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="53" t="s">
+      <c r="G83" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="H83" s="53" t="s">
+      <c r="H83" s="50" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="163"/>
-      <c r="B84" s="117" t="s">
+    <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="321"/>
+      <c r="B84" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="C84" s="57" t="s">
+      <c r="C84" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="D84" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="56" t="s">
+      <c r="D84" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="F84" s="58" t="s">
+      <c r="F84" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G84" s="56" t="s">
+      <c r="G84" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="H84" s="56"/>
-    </row>
-    <row r="85" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="152" t="s">
+      <c r="H84" s="53"/>
+    </row>
+    <row r="85" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="277" t="s">
         <v>167</v>
       </c>
-      <c r="B85" s="234"/>
-      <c r="C85" s="231" t="s">
+      <c r="B85" s="179"/>
+      <c r="C85" s="268" t="s">
         <v>92</v>
       </c>
-      <c r="D85" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85" s="41" t="s">
+      <c r="D85" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F85" s="41" t="s">
+      <c r="F85" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G85" s="42" t="s">
+      <c r="G85" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H85" s="41"/>
-    </row>
-    <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="153"/>
-      <c r="B86" s="235"/>
-      <c r="C86" s="232"/>
-      <c r="D86" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E86" s="43" t="s">
+      <c r="H85" s="38"/>
+    </row>
+    <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="278"/>
+      <c r="B86" s="180"/>
+      <c r="C86" s="269"/>
+      <c r="D86" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="F86" s="43" t="s">
+      <c r="F86" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="G86" s="44" t="s">
+      <c r="G86" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="H86" s="43" t="s">
+      <c r="H86" s="40" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="154"/>
-      <c r="B87" s="118"/>
-      <c r="C87" s="21" t="s">
+    <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="279"/>
+      <c r="B87" s="115"/>
+      <c r="C87" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="D87" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E87" s="18" t="s">
+      <c r="D87" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F87" s="18" t="s">
+      <c r="F87" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G87" s="19" t="s">
+      <c r="G87" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="H87" s="269" t="s">
+      <c r="H87" s="202" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="297" t="s">
+    <row r="88" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="280" t="s">
         <v>168</v>
       </c>
-      <c r="B88" s="296" t="s">
+      <c r="B88" s="219" t="s">
         <v>98</v>
       </c>
-      <c r="C88" s="90" t="s">
+      <c r="C88" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="D88" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="E88" s="92" t="s">
+      <c r="D88" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="F88" s="92" t="s">
+      <c r="F88" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="G88" s="91" t="s">
+      <c r="G88" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="H88" s="268"/>
-    </row>
-    <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="298"/>
-      <c r="B89" s="296" t="s">
+      <c r="H88" s="201"/>
+    </row>
+    <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="281"/>
+      <c r="B89" s="219" t="s">
         <v>170</v>
       </c>
-      <c r="C89" s="233" t="s">
+      <c r="C89" s="178" t="s">
         <v>96</v>
       </c>
-      <c r="D89" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="94" t="s">
+      <c r="D89" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="F89" s="94" t="s">
+      <c r="F89" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="G89" s="93" t="s">
+      <c r="G89" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="H89" s="94"/>
-    </row>
-    <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="299"/>
-      <c r="B90" s="296" t="s">
+      <c r="H89" s="91"/>
+    </row>
+    <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="282"/>
+      <c r="B90" s="219" t="s">
         <v>169</v>
       </c>
-      <c r="C90" s="90" t="s">
+      <c r="C90" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="E90" s="92" t="s">
+      <c r="D90" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="F90" s="92" t="s">
+      <c r="F90" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="G90" s="91" t="s">
+      <c r="G90" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="H90" s="92"/>
-    </row>
-    <row r="91" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="158" t="s">
+      <c r="H90" s="89"/>
+    </row>
+    <row r="91" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="335" t="s">
         <v>174</v>
       </c>
-      <c r="B91" s="295" t="s">
+      <c r="B91" s="218" t="s">
         <v>172</v>
       </c>
-      <c r="C91" s="39" t="s">
+      <c r="C91" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D91" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E91" s="45" t="s">
+      <c r="D91" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="F91" s="45" t="s">
+      <c r="F91" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G91" s="45" t="s">
+      <c r="G91" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H91" s="45"/>
-    </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="165"/>
-      <c r="B92" s="239" t="s">
+      <c r="H91" s="42"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="336"/>
+      <c r="B92" s="182" t="s">
         <v>173</v>
       </c>
-      <c r="C92" s="29" t="s">
+      <c r="C92" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="D92" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E92" s="25" t="s">
+      <c r="D92" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F92" s="45" t="s">
+      <c r="F92" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="G92" s="45" t="s">
+      <c r="G92" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="H92" s="320" t="s">
+      <c r="H92" s="232" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="164"/>
-      <c r="B93" s="317" t="s">
+    <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="337"/>
+      <c r="B93" s="229" t="s">
         <v>223</v>
       </c>
-      <c r="C93" s="318" t="s">
+      <c r="C93" s="230" t="s">
         <v>222</v>
       </c>
-      <c r="D93" s="319" t="s">
-        <v>18</v>
-      </c>
-      <c r="E93" s="269" t="s">
+      <c r="D93" s="231" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="202" t="s">
         <v>59</v>
       </c>
-      <c r="F93" s="321" t="s">
+      <c r="F93" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="G93" s="322" t="s">
+      <c r="G93" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="H93" s="269"/>
-    </row>
-    <row r="94" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="150" t="s">
+      <c r="H93" s="202"/>
+    </row>
+    <row r="94" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="283" t="s">
         <v>175</v>
       </c>
-      <c r="B94" s="313" t="s">
+      <c r="B94" s="225" t="s">
         <v>176</v>
       </c>
-      <c r="C94" s="314" t="s">
+      <c r="C94" s="226" t="s">
         <v>105</v>
       </c>
-      <c r="D94" s="315" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94" s="316" t="s">
+      <c r="D94" s="227" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" s="228" t="s">
         <v>107</v>
       </c>
-      <c r="F94" s="316" t="s">
+      <c r="F94" s="228" t="s">
         <v>14</v>
       </c>
-      <c r="G94" s="315" t="s">
+      <c r="G94" s="227" t="s">
         <v>60</v>
       </c>
-      <c r="H94" s="316"/>
-    </row>
-    <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="151"/>
-      <c r="B95" s="119" t="s">
+      <c r="H94" s="228"/>
+    </row>
+    <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="284"/>
+      <c r="B95" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="C95" s="95" t="s">
+      <c r="C95" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="D95" s="96" t="s">
-        <v>18</v>
-      </c>
-      <c r="E95" s="97" t="s">
+      <c r="D95" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="F95" s="97" t="s">
+      <c r="F95" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="G95" s="96" t="s">
+      <c r="G95" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="H95" s="97"/>
-    </row>
-    <row r="96" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="152" t="s">
+      <c r="H95" s="94"/>
+    </row>
+    <row r="96" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="277" t="s">
         <v>178</v>
       </c>
-      <c r="B96" s="120" t="s">
+      <c r="B96" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="C96" s="29" t="s">
+      <c r="C96" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D96" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E96" s="48" t="s">
+      <c r="D96" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="F96" s="25" t="s">
+      <c r="F96" s="22" t="s">
         <v>12</v>
       </c>
       <c r="G96" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H96" s="46"/>
-    </row>
-    <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="153"/>
-      <c r="B97" s="240" t="s">
+      <c r="H96" s="43"/>
+    </row>
+    <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="278"/>
+      <c r="B97" s="183" t="s">
         <v>113</v>
       </c>
-      <c r="C97" s="39" t="s">
+      <c r="C97" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="D97" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E97" s="45" t="s">
+      <c r="D97" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="F97" s="45" t="s">
+      <c r="F97" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="G97" s="40" t="s">
+      <c r="G97" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="H97" s="45" t="s">
+      <c r="H97" s="42" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="154"/>
-      <c r="B98" s="323" t="s">
+    <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="279"/>
+      <c r="B98" s="233" t="s">
         <v>122</v>
       </c>
-      <c r="C98" s="29" t="s">
+      <c r="C98" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="D98" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E98" s="25" t="s">
+      <c r="D98" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F98" s="25" t="s">
+      <c r="F98" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G98" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="H98" s="25" t="s">
+      <c r="H98" s="22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="158" t="s">
+    <row r="99" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="335" t="s">
         <v>225</v>
       </c>
-      <c r="B99" s="236" t="s">
+      <c r="B99" s="181" t="s">
         <v>115</v>
       </c>
-      <c r="C99" s="39" t="s">
+      <c r="C99" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="D99" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="E99" s="45" t="s">
+      <c r="D99" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="F99" s="45" t="s">
+      <c r="F99" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G99" s="40" t="s">
+      <c r="G99" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="H99" s="45"/>
-    </row>
-    <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="154"/>
-      <c r="B100" s="116" t="s">
+      <c r="H99" s="42"/>
+    </row>
+    <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="279"/>
+      <c r="B100" s="113" t="s">
         <v>226</v>
       </c>
-      <c r="C100" s="21" t="s">
+      <c r="C100" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="D100" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="18" t="s">
+      <c r="D100" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="F100" s="321" t="s">
+      <c r="F100" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="G100" s="322" t="s">
+      <c r="G100" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="H100" s="18"/>
-    </row>
-    <row r="101" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="152" t="s">
+      <c r="H100" s="17"/>
+    </row>
+    <row r="101" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="277" t="s">
         <v>253</v>
       </c>
-      <c r="B101" s="227" t="s">
+      <c r="B101" s="176" t="s">
         <v>123</v>
       </c>
-      <c r="C101" s="347" t="s">
+      <c r="C101" s="248" t="s">
         <v>116</v>
       </c>
-      <c r="D101" s="347" t="s">
-        <v>18</v>
-      </c>
-      <c r="E101" s="349" t="s">
+      <c r="D101" s="248" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="250" t="s">
         <v>34</v>
       </c>
-      <c r="F101" s="349" t="s">
+      <c r="F101" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="G101" s="348" t="s">
+      <c r="G101" s="249" t="s">
         <v>22</v>
       </c>
-      <c r="H101" s="349"/>
-    </row>
-    <row r="102" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="154"/>
-      <c r="B102" s="116" t="s">
+      <c r="H101" s="250"/>
+    </row>
+    <row r="102" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="279"/>
+      <c r="B102" s="113" t="s">
         <v>254</v>
       </c>
-      <c r="C102" s="21" t="s">
+      <c r="C102" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="D102" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E102" s="18" t="s">
+      <c r="D102" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="F102" s="18" t="s">
+      <c r="F102" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="G102" s="19" t="s">
+      <c r="G102" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="H102" s="18"/>
-    </row>
-    <row r="103" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="32" t="s">
+      <c r="H102" s="17"/>
+    </row>
+    <row r="103" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A103" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="B103" s="121" t="s">
+      <c r="B103" s="118" t="s">
         <v>118</v>
       </c>
       <c r="C103" s="6" t="s">
@@ -4804,57 +5075,57 @@
       </c>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="152" t="s">
+    <row r="104" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="277" t="s">
         <v>182</v>
       </c>
-      <c r="B104" s="227" t="s">
+      <c r="B104" s="176" t="s">
         <v>242</v>
       </c>
-      <c r="C104" s="347" t="s">
+      <c r="C104" s="248" t="s">
         <v>241</v>
       </c>
-      <c r="D104" s="348" t="s">
-        <v>18</v>
-      </c>
-      <c r="E104" s="349" t="s">
+      <c r="D104" s="249" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" s="250" t="s">
         <v>220</v>
       </c>
-      <c r="F104" s="349" t="s">
+      <c r="F104" s="250" t="s">
         <v>231</v>
       </c>
-      <c r="G104" s="348" t="s">
+      <c r="G104" s="249" t="s">
         <v>221</v>
       </c>
-      <c r="H104" s="349"/>
-    </row>
-    <row r="105" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="154"/>
-      <c r="B105" s="116" t="s">
+      <c r="H104" s="250"/>
+    </row>
+    <row r="105" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="279"/>
+      <c r="B105" s="113" t="s">
         <v>188</v>
       </c>
-      <c r="C105" s="21" t="s">
+      <c r="C105" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="D105" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E105" s="18" t="s">
+      <c r="D105" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F105" s="18" t="s">
+      <c r="F105" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G105" s="19" t="s">
+      <c r="G105" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H105" s="18"/>
-    </row>
-    <row r="106" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="32" t="s">
+      <c r="H105" s="17"/>
+    </row>
+    <row r="106" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="B106" s="121" t="s">
+      <c r="B106" s="118" t="s">
         <v>184</v>
       </c>
       <c r="C106" s="6" t="s">
@@ -4874,11 +5145,11 @@
       </c>
       <c r="H106" s="3"/>
     </row>
-    <row r="107" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="32" t="s">
+    <row r="107" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A107" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="B107" s="121" t="s">
+      <c r="B107" s="118" t="s">
         <v>185</v>
       </c>
       <c r="C107" s="6" t="s">
@@ -4898,11 +5169,11 @@
       </c>
       <c r="H107" s="3"/>
     </row>
-    <row r="108" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="32" t="s">
+    <row r="108" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="B108" s="121" t="s">
+      <c r="B108" s="118" t="s">
         <v>187</v>
       </c>
       <c r="C108" s="6" t="s">
@@ -4924,11 +5195,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="32" t="s">
+    <row r="109" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="B109" s="121" t="s">
+      <c r="B109" s="118" t="s">
         <v>190</v>
       </c>
       <c r="C109" s="6" t="s">
@@ -4937,7 +5208,7 @@
       <c r="D109" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E109" s="22" t="s">
+      <c r="E109" s="3" t="s">
         <v>131</v>
       </c>
       <c r="F109" s="3" t="s">
@@ -4950,11 +5221,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="32" t="s">
+    <row r="110" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A110" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="B110" s="121" t="s">
+      <c r="B110" s="118" t="s">
         <v>198</v>
       </c>
       <c r="C110" s="6" t="s">
@@ -4976,14 +5247,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="33" t="s">
+    <row r="111" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="B111" s="120" t="s">
+      <c r="B111" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="C111" s="20" t="s">
+      <c r="C111" s="19" t="s">
         <v>133</v>
       </c>
       <c r="D111" s="11" t="s">
@@ -5002,207 +5273,207 @@
         <v>91</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="32" t="s">
+    <row r="112" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A112" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="B112" s="122" t="s">
+      <c r="B112" s="119" t="s">
         <v>180</v>
       </c>
-      <c r="C112" s="48" t="s">
+      <c r="C112" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="D112" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E112" s="46" t="s">
+      <c r="D112" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="F112" s="46" t="s">
+      <c r="F112" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G112" s="47" t="s">
+      <c r="G112" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="H112" s="46"/>
-    </row>
-    <row r="113" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="155" t="s">
+      <c r="H112" s="43"/>
+    </row>
+    <row r="113" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="261" t="s">
         <v>193</v>
       </c>
-      <c r="B113" s="241"/>
-      <c r="C113" s="237" t="s">
+      <c r="B113" s="184"/>
+      <c r="C113" s="307" t="s">
         <v>135</v>
       </c>
-      <c r="D113" s="98" t="s">
-        <v>18</v>
-      </c>
-      <c r="E113" s="99" t="s">
+      <c r="D113" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="F113" s="99" t="s">
+      <c r="F113" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="G113" s="98" t="s">
+      <c r="G113" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="H113" s="99" t="s">
+      <c r="H113" s="96" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A114" s="156"/>
-      <c r="B114" s="241"/>
-      <c r="C114" s="238"/>
-      <c r="D114" s="100" t="s">
-        <v>18</v>
-      </c>
-      <c r="E114" s="101" t="s">
+    <row r="114" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A114" s="262"/>
+      <c r="B114" s="184"/>
+      <c r="C114" s="308"/>
+      <c r="D114" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="E114" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="F114" s="102" t="s">
+      <c r="F114" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="G114" s="103" t="s">
+      <c r="G114" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="H114" s="101" t="s">
+      <c r="H114" s="98" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115" s="156"/>
-      <c r="B115" s="241"/>
-      <c r="C115" s="238"/>
-      <c r="D115" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="E115" s="102" t="s">
+    <row r="115" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="262"/>
+      <c r="B115" s="184"/>
+      <c r="C115" s="308"/>
+      <c r="D115" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F115" s="102" t="s">
+      <c r="F115" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="G115" s="103" t="s">
+      <c r="G115" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="H115" s="102" t="s">
+      <c r="H115" s="99" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A116" s="156"/>
-      <c r="B116" s="243"/>
-      <c r="C116" s="238"/>
-      <c r="D116" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="E116" s="102" t="s">
+    <row r="116" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A116" s="262"/>
+      <c r="B116" s="185"/>
+      <c r="C116" s="308"/>
+      <c r="D116" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="F116" s="102" t="s">
+      <c r="F116" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G116" s="103" t="s">
+      <c r="G116" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="H116" s="102" t="s">
+      <c r="H116" s="99" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="156"/>
-      <c r="B117" s="244"/>
-      <c r="C117" s="242"/>
-      <c r="D117" s="104" t="s">
-        <v>18</v>
-      </c>
-      <c r="E117" s="105" t="s">
+    <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="262"/>
+      <c r="B117" s="186"/>
+      <c r="C117" s="309"/>
+      <c r="D117" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117" s="102" t="s">
         <v>139</v>
       </c>
-      <c r="F117" s="105" t="s">
+      <c r="F117" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="G117" s="104" t="s">
+      <c r="G117" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="H117" s="105" t="s">
+      <c r="H117" s="102" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A118" s="156"/>
-      <c r="B118" s="244"/>
-      <c r="C118" s="293" t="s">
+    <row r="118" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="262"/>
+      <c r="B118" s="186"/>
+      <c r="C118" s="259" t="s">
         <v>140</v>
       </c>
-      <c r="D118" s="106" t="s">
+      <c r="D118" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="E118" s="107" t="s">
+      <c r="E118" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="F118" s="107" t="s">
+      <c r="F118" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="G118" s="106" t="s">
+      <c r="G118" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="H118" s="107" t="s">
+      <c r="H118" s="104" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="156"/>
-      <c r="B119" s="244"/>
-      <c r="C119" s="294"/>
-      <c r="D119" s="108" t="s">
-        <v>18</v>
-      </c>
-      <c r="E119" s="109" t="s">
+    <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="262"/>
+      <c r="B119" s="186"/>
+      <c r="C119" s="260"/>
+      <c r="D119" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="F119" s="109" t="s">
+      <c r="F119" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="G119" s="108" t="s">
+      <c r="G119" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="H119" s="109" t="s">
+      <c r="H119" s="106" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="157"/>
-      <c r="B120" s="245"/>
-      <c r="C120" s="292" t="s">
+    <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="263"/>
+      <c r="B120" s="187"/>
+      <c r="C120" s="217" t="s">
         <v>142</v>
       </c>
-      <c r="D120" s="184" t="s">
-        <v>18</v>
-      </c>
-      <c r="E120" s="185" t="s">
+      <c r="D120" s="145" t="s">
+        <v>18</v>
+      </c>
+      <c r="E120" s="146" t="s">
         <v>121</v>
       </c>
-      <c r="F120" s="185" t="s">
+      <c r="F120" s="146" t="s">
         <v>16</v>
       </c>
-      <c r="G120" s="186" t="s">
+      <c r="G120" s="147" t="s">
         <v>153</v>
       </c>
-      <c r="H120" s="110" t="s">
+      <c r="H120" s="107" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="187" t="s">
+    <row r="121" spans="1:8" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="328" t="s">
         <v>201</v>
       </c>
-      <c r="B121" s="192"/>
+      <c r="B121" s="150"/>
       <c r="C121" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D121" s="20" t="s">
+      <c r="D121" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E121" s="11" t="s">
@@ -5214,12 +5485,11 @@
       <c r="G121" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="H121" s="20"/>
-      <c r="I121" s="23"/>
-    </row>
-    <row r="122" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="188"/>
-      <c r="B122" s="193"/>
+      <c r="H121" s="19"/>
+    </row>
+    <row r="122" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="329"/>
+      <c r="B122" s="151"/>
       <c r="C122" s="2" t="s">
         <v>203</v>
       </c>
@@ -5236,15 +5506,14 @@
         <v>200</v>
       </c>
       <c r="H122" s="2"/>
-      <c r="I122" s="23"/>
-    </row>
-    <row r="123" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="189"/>
-      <c r="B123" s="195"/>
-      <c r="C123" s="28" t="s">
+    </row>
+    <row r="123" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="330"/>
+      <c r="B123" s="153"/>
+      <c r="C123" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="D123" s="28" t="s">
+      <c r="D123" s="25" t="s">
         <v>18</v>
       </c>
       <c r="E123" s="12" t="s">
@@ -5253,24 +5522,23 @@
       <c r="F123" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="G123" s="28" t="s">
+      <c r="G123" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="H123" s="28"/>
-      <c r="I123" s="23"/>
-    </row>
-    <row r="124" spans="1:9" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="187" t="s">
+      <c r="H123" s="25"/>
+    </row>
+    <row r="124" spans="1:8" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="328" t="s">
         <v>209</v>
       </c>
-      <c r="B124" s="192"/>
-      <c r="C124" s="196" t="s">
+      <c r="B124" s="150"/>
+      <c r="C124" s="154" t="s">
         <v>206</v>
       </c>
-      <c r="D124" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E124" s="199" t="s">
+      <c r="D124" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124" s="156" t="s">
         <v>82</v>
       </c>
       <c r="F124" s="11" t="s">
@@ -5279,19 +5547,18 @@
       <c r="G124" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="H124" s="20"/>
-      <c r="I124" s="23"/>
-    </row>
-    <row r="125" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="188"/>
-      <c r="B125" s="193"/>
-      <c r="C125" s="197" t="s">
+      <c r="H124" s="19"/>
+    </row>
+    <row r="125" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="329"/>
+      <c r="B125" s="151"/>
+      <c r="C125" s="155" t="s">
         <v>207</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E125" s="200" t="s">
+      <c r="E125" s="157" t="s">
         <v>219</v>
       </c>
       <c r="F125" s="5" t="s">
@@ -5301,80 +5568,76 @@
         <v>200</v>
       </c>
       <c r="H125" s="2"/>
-      <c r="I125" s="23"/>
-    </row>
-    <row r="126" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="189"/>
-      <c r="B126" s="194"/>
-      <c r="C126" s="198" t="s">
+    </row>
+    <row r="126" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="330"/>
+      <c r="B126" s="152"/>
+      <c r="C126" s="149" t="s">
         <v>208</v>
       </c>
-      <c r="D126" s="191" t="s">
-        <v>18</v>
-      </c>
-      <c r="E126" s="201" t="s">
+      <c r="D126" s="149" t="s">
+        <v>18</v>
+      </c>
+      <c r="E126" s="158" t="s">
         <v>55</v>
       </c>
-      <c r="F126" s="190" t="s">
+      <c r="F126" s="148" t="s">
         <v>199</v>
       </c>
-      <c r="G126" s="190" t="s">
+      <c r="G126" s="148" t="s">
         <v>200</v>
       </c>
-      <c r="H126" s="191"/>
-      <c r="I126" s="23"/>
-    </row>
-    <row r="127" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="203" t="s">
+      <c r="H126" s="149"/>
+    </row>
+    <row r="127" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A127" s="160" t="s">
         <v>210</v>
       </c>
-      <c r="B127" s="205"/>
-      <c r="C127" s="198" t="s">
+      <c r="B127" s="162"/>
+      <c r="C127" s="149" t="s">
         <v>211</v>
       </c>
-      <c r="D127" s="191" t="s">
-        <v>18</v>
-      </c>
-      <c r="E127" s="201" t="s">
+      <c r="D127" s="149" t="s">
+        <v>18</v>
+      </c>
+      <c r="E127" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="F127" s="190" t="s">
+      <c r="F127" s="148" t="s">
         <v>199</v>
       </c>
-      <c r="G127" s="190" t="s">
+      <c r="G127" s="148" t="s">
         <v>200</v>
       </c>
-      <c r="H127" s="191"/>
-      <c r="I127" s="23"/>
-    </row>
-    <row r="128" spans="1:9" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="204" t="s">
+      <c r="H127" s="149"/>
+    </row>
+    <row r="128" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A128" s="161" t="s">
         <v>212</v>
       </c>
-      <c r="B128" s="206"/>
+      <c r="B128" s="163"/>
       <c r="C128" s="3" t="s">
         <v>213</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E128" s="19" t="s">
+      <c r="E128" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="F128" s="190" t="s">
+      <c r="F128" s="148" t="s">
         <v>199</v>
       </c>
-      <c r="G128" s="190" t="s">
+      <c r="G128" s="148" t="s">
         <v>200</v>
       </c>
-      <c r="H128" s="21"/>
-      <c r="I128" s="23"/>
-    </row>
-    <row r="129" spans="1:11" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="203" t="s">
+      <c r="H128" s="20"/>
+    </row>
+    <row r="129" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A129" s="160" t="s">
         <v>239</v>
       </c>
-      <c r="B129" s="205"/>
+      <c r="B129" s="162"/>
       <c r="C129" s="3" t="s">
         <v>240</v>
       </c>
@@ -5391,61 +5654,58 @@
         <v>221</v>
       </c>
       <c r="H129" s="6"/>
-      <c r="I129" s="23"/>
-    </row>
-    <row r="130" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="352" t="s">
+    </row>
+    <row r="130" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A130" s="305" t="s">
         <v>243</v>
       </c>
-      <c r="B130" s="350" t="s">
+      <c r="B130" s="251" t="s">
         <v>268</v>
       </c>
-      <c r="C130" s="349" t="s">
+      <c r="C130" s="250" t="s">
         <v>265</v>
       </c>
-      <c r="D130" s="347" t="s">
-        <v>18</v>
-      </c>
-      <c r="E130" s="347" t="s">
+      <c r="D130" s="248" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130" s="248" t="s">
         <v>267</v>
       </c>
-      <c r="F130" s="347" t="s">
+      <c r="F130" s="248" t="s">
         <v>231</v>
       </c>
-      <c r="G130" s="347" t="s">
+      <c r="G130" s="248" t="s">
         <v>257</v>
       </c>
-      <c r="H130" s="347"/>
-      <c r="I130" s="23"/>
-    </row>
-    <row r="131" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="353"/>
-      <c r="B131" s="351" t="s">
+      <c r="H130" s="248"/>
+    </row>
+    <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="306"/>
+      <c r="B131" s="252" t="s">
         <v>269</v>
       </c>
-      <c r="C131" s="18" t="s">
+      <c r="C131" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="D131" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E131" s="21" t="s">
+      <c r="D131" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E131" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F131" s="21" t="s">
+      <c r="F131" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="G131" s="21" t="s">
+      <c r="G131" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="H131" s="21"/>
-      <c r="I131" s="23"/>
-    </row>
-    <row r="132" spans="1:11" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="202" t="s">
+      <c r="H131" s="20"/>
+    </row>
+    <row r="132" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A132" s="159" t="s">
         <v>244</v>
       </c>
-      <c r="B132" s="206"/>
+      <c r="B132" s="163"/>
       <c r="C132" s="3" t="s">
         <v>252</v>
       </c>
@@ -5458,17 +5718,16 @@
       <c r="F132" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G132" s="21" t="s">
+      <c r="G132" s="20" t="s">
         <v>257</v>
       </c>
       <c r="H132" s="3"/>
-      <c r="I132" s="23"/>
-    </row>
-    <row r="133" spans="1:11" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="202" t="s">
+    </row>
+    <row r="133" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A133" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="B133" s="206"/>
+      <c r="B133" s="163"/>
       <c r="C133" s="3" t="s">
         <v>251</v>
       </c>
@@ -5481,17 +5740,16 @@
       <c r="F133" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G133" s="21" t="s">
+      <c r="G133" s="20" t="s">
         <v>257</v>
       </c>
       <c r="H133" s="3"/>
-      <c r="I133" s="23"/>
-    </row>
-    <row r="134" spans="1:11" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="202" t="s">
+    </row>
+    <row r="134" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A134" s="159" t="s">
         <v>246</v>
       </c>
-      <c r="B134" s="206"/>
+      <c r="B134" s="163"/>
       <c r="C134" s="3" t="s">
         <v>258</v>
       </c>
@@ -5504,17 +5762,16 @@
       <c r="F134" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G134" s="21" t="s">
+      <c r="G134" s="20" t="s">
         <v>257</v>
       </c>
       <c r="H134" s="3"/>
-      <c r="I134" s="23"/>
-    </row>
-    <row r="135" spans="1:11" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="202" t="s">
+    </row>
+    <row r="135" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A135" s="159" t="s">
         <v>247</v>
       </c>
-      <c r="B135" s="206"/>
+      <c r="B135" s="163"/>
       <c r="C135" s="3" t="s">
         <v>259</v>
       </c>
@@ -5527,17 +5784,16 @@
       <c r="F135" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G135" s="21" t="s">
+      <c r="G135" s="20" t="s">
         <v>257</v>
       </c>
       <c r="H135" s="3"/>
-      <c r="I135" s="23"/>
-    </row>
-    <row r="136" spans="1:11" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="202" t="s">
+    </row>
+    <row r="136" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A136" s="159" t="s">
         <v>248</v>
       </c>
-      <c r="B136" s="206"/>
+      <c r="B136" s="163"/>
       <c r="C136" s="3" t="s">
         <v>260</v>
       </c>
@@ -5550,17 +5806,16 @@
       <c r="F136" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G136" s="21" t="s">
+      <c r="G136" s="20" t="s">
         <v>257</v>
       </c>
       <c r="H136" s="3"/>
-      <c r="I136" s="23"/>
-    </row>
-    <row r="137" spans="1:11" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="202" t="s">
+    </row>
+    <row r="137" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A137" s="159" t="s">
         <v>249</v>
       </c>
-      <c r="B137" s="206"/>
+      <c r="B137" s="163"/>
       <c r="C137" s="3" t="s">
         <v>261</v>
       </c>
@@ -5573,17 +5828,16 @@
       <c r="F137" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G137" s="21" t="s">
+      <c r="G137" s="20" t="s">
         <v>257</v>
       </c>
       <c r="H137" s="3"/>
-      <c r="I137" s="23"/>
-    </row>
-    <row r="138" spans="1:11" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="202" t="s">
+    </row>
+    <row r="138" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A138" s="159" t="s">
         <v>250</v>
       </c>
-      <c r="B138" s="206"/>
+      <c r="B138" s="163"/>
       <c r="C138" s="3" t="s">
         <v>262</v>
       </c>
@@ -5596,1112 +5850,941 @@
       <c r="F138" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G138" s="21" t="s">
+      <c r="G138" s="20" t="s">
         <v>257</v>
       </c>
       <c r="H138" s="3"/>
-      <c r="I138" s="23"/>
-    </row>
-    <row r="139" spans="1:11" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:8" ht="17.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="C139" s="15"/>
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
       <c r="F139" s="15"/>
       <c r="G139" s="15"/>
       <c r="H139" s="15"/>
-      <c r="I139" s="23"/>
-      <c r="J139" s="23"/>
-      <c r="K139" s="23"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C140" s="15"/>
       <c r="D140" s="15"/>
       <c r="E140" s="15"/>
       <c r="F140" s="15"/>
       <c r="G140" s="15"/>
       <c r="H140" s="15"/>
-      <c r="I140" s="23"/>
-      <c r="J140" s="23"/>
-      <c r="K140" s="23"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C141" s="15"/>
       <c r="D141" s="15"/>
       <c r="E141" s="15"/>
       <c r="F141" s="15"/>
       <c r="G141" s="15"/>
       <c r="H141" s="15"/>
-      <c r="I141" s="23"/>
-      <c r="J141" s="23"/>
-      <c r="K141" s="23"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C142" s="15"/>
       <c r="D142" s="15"/>
       <c r="E142" s="15"/>
       <c r="F142" s="15"/>
       <c r="G142" s="15"/>
       <c r="H142" s="15"/>
-      <c r="I142" s="23"/>
-      <c r="J142" s="23"/>
-      <c r="K142" s="23"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C143" s="15"/>
       <c r="D143" s="15"/>
       <c r="E143" s="15"/>
       <c r="F143" s="15"/>
       <c r="G143" s="15"/>
       <c r="H143" s="15"/>
-      <c r="I143" s="23"/>
-      <c r="J143" s="23"/>
-      <c r="K143" s="23"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C144" s="15"/>
       <c r="D144" s="15"/>
       <c r="E144" s="15"/>
       <c r="F144" s="15"/>
       <c r="G144" s="15"/>
       <c r="H144" s="15"/>
-      <c r="I144" s="23"/>
-      <c r="J144" s="23"/>
-      <c r="K144" s="23"/>
-    </row>
-    <row r="145" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C145" s="15"/>
       <c r="D145" s="15"/>
       <c r="E145" s="15"/>
       <c r="F145" s="15"/>
       <c r="G145" s="15"/>
       <c r="H145" s="15"/>
-      <c r="I145" s="23"/>
-      <c r="J145" s="23"/>
-      <c r="K145" s="23"/>
-    </row>
-    <row r="146" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C146" s="15"/>
       <c r="D146" s="15"/>
       <c r="E146" s="15"/>
       <c r="F146" s="15"/>
       <c r="G146" s="15"/>
       <c r="H146" s="15"/>
-      <c r="I146" s="23"/>
-      <c r="J146" s="23"/>
-      <c r="K146" s="23"/>
-    </row>
-    <row r="147" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C147" s="15"/>
       <c r="D147" s="15"/>
       <c r="E147" s="15"/>
       <c r="F147" s="15"/>
       <c r="G147" s="15"/>
       <c r="H147" s="15"/>
-      <c r="I147" s="23"/>
-      <c r="J147" s="23"/>
-      <c r="K147" s="23"/>
-    </row>
-    <row r="148" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C148" s="15"/>
       <c r="D148" s="15"/>
       <c r="E148" s="15"/>
       <c r="F148" s="15"/>
       <c r="G148" s="15"/>
       <c r="H148" s="15"/>
-      <c r="I148" s="23"/>
-      <c r="J148" s="23"/>
-      <c r="K148" s="23"/>
-    </row>
-    <row r="149" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
       <c r="E149" s="15"/>
       <c r="F149" s="15"/>
       <c r="G149" s="15"/>
       <c r="H149" s="15"/>
-      <c r="I149" s="23"/>
-      <c r="J149" s="23"/>
-      <c r="K149" s="23"/>
-    </row>
-    <row r="150" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C150" s="15"/>
       <c r="D150" s="15"/>
       <c r="E150" s="15"/>
       <c r="F150" s="15"/>
       <c r="G150" s="15"/>
       <c r="H150" s="15"/>
-      <c r="I150" s="23"/>
-      <c r="J150" s="23"/>
-      <c r="K150" s="23"/>
-    </row>
-    <row r="151" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C151" s="15"/>
       <c r="D151" s="15"/>
       <c r="E151" s="15"/>
       <c r="F151" s="15"/>
       <c r="G151" s="15"/>
       <c r="H151" s="15"/>
-      <c r="I151" s="23"/>
-      <c r="J151" s="23"/>
-      <c r="K151" s="23"/>
-    </row>
-    <row r="152" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C152" s="15"/>
       <c r="D152" s="15"/>
       <c r="E152" s="15"/>
       <c r="F152" s="15"/>
       <c r="G152" s="15"/>
       <c r="H152" s="15"/>
-      <c r="I152" s="23"/>
-      <c r="J152" s="23"/>
-      <c r="K152" s="23"/>
-    </row>
-    <row r="153" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C153" s="15"/>
       <c r="D153" s="15"/>
       <c r="E153" s="15"/>
       <c r="F153" s="15"/>
       <c r="G153" s="15"/>
       <c r="H153" s="15"/>
-      <c r="I153" s="23"/>
-      <c r="J153" s="23"/>
-      <c r="K153" s="23"/>
-    </row>
-    <row r="154" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C154" s="15"/>
       <c r="D154" s="15"/>
       <c r="E154" s="15"/>
       <c r="F154" s="15"/>
       <c r="G154" s="15"/>
       <c r="H154" s="15"/>
-      <c r="I154" s="23"/>
-      <c r="J154" s="23"/>
-      <c r="K154" s="23"/>
-    </row>
-    <row r="155" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C155" s="15"/>
       <c r="D155" s="15"/>
       <c r="E155" s="15"/>
       <c r="F155" s="15"/>
       <c r="G155" s="15"/>
       <c r="H155" s="15"/>
-      <c r="I155" s="23"/>
-      <c r="J155" s="23"/>
-      <c r="K155" s="23"/>
-    </row>
-    <row r="156" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C156" s="15"/>
       <c r="D156" s="15"/>
       <c r="E156" s="15"/>
       <c r="F156" s="15"/>
       <c r="G156" s="15"/>
       <c r="H156" s="15"/>
-      <c r="I156" s="23"/>
-      <c r="J156" s="23"/>
-      <c r="K156" s="23"/>
-    </row>
-    <row r="157" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C157" s="15"/>
       <c r="D157" s="15"/>
       <c r="E157" s="15"/>
       <c r="F157" s="15"/>
       <c r="G157" s="15"/>
       <c r="H157" s="15"/>
-      <c r="I157" s="23"/>
-      <c r="J157" s="23"/>
-      <c r="K157" s="23"/>
-    </row>
-    <row r="158" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C158" s="15"/>
       <c r="D158" s="15"/>
       <c r="E158" s="15"/>
       <c r="F158" s="15"/>
       <c r="G158" s="15"/>
       <c r="H158" s="15"/>
-      <c r="I158" s="23"/>
-      <c r="J158" s="23"/>
-      <c r="K158" s="23"/>
-    </row>
-    <row r="159" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C159" s="15"/>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
       <c r="F159" s="15"/>
       <c r="G159" s="15"/>
       <c r="H159" s="15"/>
-      <c r="I159" s="23"/>
-      <c r="J159" s="23"/>
-      <c r="K159" s="23"/>
-    </row>
-    <row r="160" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C160" s="15"/>
       <c r="D160" s="15"/>
       <c r="E160" s="15"/>
       <c r="F160" s="15"/>
       <c r="G160" s="15"/>
       <c r="H160" s="15"/>
-      <c r="I160" s="23"/>
-      <c r="J160" s="23"/>
-      <c r="K160" s="23"/>
-    </row>
-    <row r="161" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C161" s="15"/>
       <c r="D161" s="15"/>
       <c r="E161" s="15"/>
       <c r="F161" s="15"/>
       <c r="G161" s="15"/>
       <c r="H161" s="15"/>
-      <c r="I161" s="23"/>
-      <c r="J161" s="23"/>
-      <c r="K161" s="23"/>
-    </row>
-    <row r="162" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
       <c r="E162" s="15"/>
       <c r="F162" s="15"/>
       <c r="G162" s="15"/>
       <c r="H162" s="15"/>
-      <c r="I162" s="23"/>
-      <c r="J162" s="23"/>
-      <c r="K162" s="23"/>
-    </row>
-    <row r="163" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C163" s="15"/>
       <c r="D163" s="15"/>
       <c r="E163" s="15"/>
       <c r="F163" s="15"/>
       <c r="G163" s="15"/>
       <c r="H163" s="15"/>
-      <c r="I163" s="23"/>
-      <c r="J163" s="23"/>
-      <c r="K163" s="23"/>
-    </row>
-    <row r="164" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C164" s="15"/>
       <c r="D164" s="15"/>
       <c r="E164" s="15"/>
       <c r="F164" s="15"/>
       <c r="G164" s="15"/>
       <c r="H164" s="15"/>
-      <c r="I164" s="23"/>
-      <c r="J164" s="23"/>
-      <c r="K164" s="23"/>
-    </row>
-    <row r="165" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C165" s="15"/>
       <c r="D165" s="15"/>
       <c r="E165" s="15"/>
       <c r="F165" s="15"/>
       <c r="G165" s="15"/>
       <c r="H165" s="15"/>
-      <c r="I165" s="23"/>
-      <c r="J165" s="23"/>
-      <c r="K165" s="23"/>
-    </row>
-    <row r="166" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C166" s="15"/>
       <c r="D166" s="15"/>
       <c r="E166" s="15"/>
       <c r="F166" s="15"/>
       <c r="G166" s="15"/>
       <c r="H166" s="15"/>
-      <c r="I166" s="23"/>
-      <c r="J166" s="23"/>
-      <c r="K166" s="23"/>
-    </row>
-    <row r="167" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C167" s="15"/>
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
       <c r="F167" s="15"/>
       <c r="G167" s="15"/>
       <c r="H167" s="15"/>
-      <c r="I167" s="23"/>
-      <c r="J167" s="23"/>
-      <c r="K167" s="23"/>
-    </row>
-    <row r="168" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C168" s="15"/>
       <c r="D168" s="15"/>
       <c r="E168" s="15"/>
       <c r="F168" s="15"/>
       <c r="G168" s="15"/>
       <c r="H168" s="15"/>
-      <c r="I168" s="23"/>
-      <c r="J168" s="23"/>
-      <c r="K168" s="23"/>
-    </row>
-    <row r="169" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C169" s="15"/>
       <c r="D169" s="15"/>
       <c r="E169" s="15"/>
       <c r="F169" s="15"/>
       <c r="G169" s="15"/>
       <c r="H169" s="15"/>
-      <c r="I169" s="23"/>
-      <c r="J169" s="23"/>
-      <c r="K169" s="23"/>
-    </row>
-    <row r="170" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C170" s="15"/>
       <c r="D170" s="15"/>
       <c r="E170" s="15"/>
       <c r="F170" s="15"/>
       <c r="G170" s="15"/>
       <c r="H170" s="15"/>
-      <c r="I170" s="23"/>
-      <c r="J170" s="23"/>
-      <c r="K170" s="23"/>
-    </row>
-    <row r="171" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C171" s="15"/>
       <c r="D171" s="15"/>
       <c r="E171" s="15"/>
       <c r="F171" s="15"/>
       <c r="G171" s="15"/>
       <c r="H171" s="15"/>
-      <c r="I171" s="23"/>
-      <c r="J171" s="23"/>
-      <c r="K171" s="23"/>
-    </row>
-    <row r="172" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C172" s="15"/>
       <c r="D172" s="15"/>
       <c r="E172" s="15"/>
       <c r="F172" s="15"/>
       <c r="G172" s="15"/>
       <c r="H172" s="15"/>
-      <c r="I172" s="23"/>
-      <c r="J172" s="23"/>
-      <c r="K172" s="23"/>
-    </row>
-    <row r="173" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C173" s="15"/>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
       <c r="F173" s="15"/>
       <c r="G173" s="15"/>
       <c r="H173" s="15"/>
-      <c r="I173" s="23"/>
-      <c r="J173" s="23"/>
-      <c r="K173" s="23"/>
-    </row>
-    <row r="174" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C174" s="15"/>
       <c r="D174" s="15"/>
       <c r="E174" s="15"/>
       <c r="F174" s="15"/>
       <c r="G174" s="15"/>
       <c r="H174" s="15"/>
-      <c r="I174" s="23"/>
-      <c r="J174" s="23"/>
-      <c r="K174" s="23"/>
-    </row>
-    <row r="175" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C175" s="15"/>
       <c r="D175" s="15"/>
       <c r="E175" s="15"/>
       <c r="F175" s="15"/>
       <c r="G175" s="15"/>
       <c r="H175" s="15"/>
-      <c r="I175" s="23"/>
-      <c r="J175" s="23"/>
-    </row>
-    <row r="176" spans="3:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C176" s="15"/>
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
       <c r="F176" s="15"/>
       <c r="G176" s="15"/>
       <c r="H176" s="15"/>
-      <c r="I176" s="23"/>
-      <c r="J176" s="23"/>
-    </row>
-    <row r="177" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C177" s="15"/>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
       <c r="F177" s="15"/>
       <c r="G177" s="15"/>
       <c r="H177" s="15"/>
-      <c r="I177" s="23"/>
-      <c r="J177" s="23"/>
-    </row>
-    <row r="178" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C178" s="15"/>
       <c r="D178" s="15"/>
       <c r="E178" s="15"/>
       <c r="F178" s="15"/>
       <c r="G178" s="15"/>
       <c r="H178" s="15"/>
-      <c r="I178" s="23"/>
-      <c r="J178" s="23"/>
-    </row>
-    <row r="179" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C179" s="15"/>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
       <c r="F179" s="15"/>
       <c r="G179" s="15"/>
       <c r="H179" s="15"/>
-      <c r="I179" s="23"/>
-      <c r="J179" s="23"/>
-    </row>
-    <row r="180" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C180" s="15"/>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
       <c r="F180" s="15"/>
       <c r="G180" s="15"/>
       <c r="H180" s="15"/>
-      <c r="I180" s="23"/>
-      <c r="J180" s="23"/>
-    </row>
-    <row r="181" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C181" s="15"/>
       <c r="D181" s="15"/>
       <c r="E181" s="15"/>
       <c r="F181" s="15"/>
       <c r="G181" s="15"/>
       <c r="H181" s="15"/>
-      <c r="I181" s="23"/>
-      <c r="J181" s="23"/>
-    </row>
-    <row r="182" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C182" s="15"/>
       <c r="D182" s="15"/>
       <c r="E182" s="15"/>
       <c r="F182" s="15"/>
       <c r="G182" s="15"/>
       <c r="H182" s="15"/>
-      <c r="I182" s="23"/>
-      <c r="J182" s="23"/>
-    </row>
-    <row r="183" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C183" s="15"/>
       <c r="D183" s="15"/>
       <c r="E183" s="15"/>
       <c r="F183" s="15"/>
       <c r="G183" s="15"/>
       <c r="H183" s="15"/>
-      <c r="I183" s="23"/>
-      <c r="J183" s="23"/>
-    </row>
-    <row r="184" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C184" s="15"/>
       <c r="D184" s="15"/>
       <c r="E184" s="15"/>
       <c r="F184" s="15"/>
       <c r="G184" s="15"/>
       <c r="H184" s="15"/>
-      <c r="I184" s="23"/>
-      <c r="J184" s="23"/>
-    </row>
-    <row r="185" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C185" s="15"/>
       <c r="D185" s="15"/>
       <c r="E185" s="15"/>
       <c r="F185" s="15"/>
       <c r="G185" s="15"/>
       <c r="H185" s="15"/>
-      <c r="I185" s="23"/>
-      <c r="J185" s="23"/>
-    </row>
-    <row r="186" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C186" s="15"/>
       <c r="D186" s="15"/>
       <c r="E186" s="15"/>
       <c r="F186" s="15"/>
       <c r="G186" s="15"/>
       <c r="H186" s="15"/>
-      <c r="I186" s="23"/>
-      <c r="J186" s="23"/>
-    </row>
-    <row r="187" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C187" s="15"/>
       <c r="D187" s="15"/>
       <c r="E187" s="15"/>
       <c r="F187" s="15"/>
       <c r="G187" s="15"/>
       <c r="H187" s="15"/>
-      <c r="I187" s="23"/>
-      <c r="J187" s="23"/>
-    </row>
-    <row r="188" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C188" s="15"/>
       <c r="D188" s="15"/>
       <c r="E188" s="15"/>
       <c r="F188" s="15"/>
       <c r="G188" s="15"/>
       <c r="H188" s="15"/>
-      <c r="I188" s="23"/>
-      <c r="J188" s="23"/>
-    </row>
-    <row r="189" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C189" s="15"/>
       <c r="D189" s="15"/>
       <c r="E189" s="15"/>
       <c r="F189" s="15"/>
       <c r="G189" s="15"/>
       <c r="H189" s="15"/>
-      <c r="I189" s="23"/>
-      <c r="J189" s="23"/>
-    </row>
-    <row r="190" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C190" s="15"/>
       <c r="D190" s="15"/>
       <c r="E190" s="15"/>
       <c r="F190" s="15"/>
       <c r="G190" s="15"/>
       <c r="H190" s="15"/>
-      <c r="I190" s="23"/>
-      <c r="J190" s="23"/>
-    </row>
-    <row r="191" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C191" s="15"/>
       <c r="D191" s="15"/>
       <c r="E191" s="15"/>
       <c r="F191" s="15"/>
       <c r="G191" s="15"/>
       <c r="H191" s="15"/>
-      <c r="I191" s="23"/>
-      <c r="J191" s="23"/>
-    </row>
-    <row r="192" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C192" s="15"/>
       <c r="D192" s="15"/>
       <c r="E192" s="15"/>
       <c r="F192" s="15"/>
       <c r="G192" s="15"/>
       <c r="H192" s="15"/>
-      <c r="I192" s="23"/>
-      <c r="J192" s="23"/>
-    </row>
-    <row r="193" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C193" s="15"/>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
       <c r="F193" s="15"/>
       <c r="G193" s="15"/>
       <c r="H193" s="15"/>
-      <c r="I193" s="23"/>
-      <c r="J193" s="23"/>
-    </row>
-    <row r="194" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C194" s="15"/>
       <c r="D194" s="15"/>
       <c r="E194" s="15"/>
       <c r="F194" s="15"/>
       <c r="G194" s="15"/>
       <c r="H194" s="15"/>
-      <c r="I194" s="23"/>
-      <c r="J194" s="23"/>
-    </row>
-    <row r="195" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C195" s="15"/>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
       <c r="F195" s="15"/>
       <c r="G195" s="15"/>
       <c r="H195" s="15"/>
-      <c r="I195" s="23"/>
-      <c r="J195" s="23"/>
-    </row>
-    <row r="196" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C196" s="15"/>
       <c r="D196" s="15"/>
       <c r="E196" s="15"/>
       <c r="F196" s="15"/>
       <c r="G196" s="15"/>
       <c r="H196" s="15"/>
-      <c r="I196" s="23"/>
-      <c r="J196" s="23"/>
-    </row>
-    <row r="197" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C197" s="15"/>
       <c r="D197" s="15"/>
       <c r="E197" s="15"/>
       <c r="F197" s="15"/>
       <c r="G197" s="15"/>
       <c r="H197" s="15"/>
-      <c r="I197" s="23"/>
-      <c r="J197" s="23"/>
-    </row>
-    <row r="198" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C198" s="15"/>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
       <c r="F198" s="15"/>
       <c r="G198" s="15"/>
       <c r="H198" s="15"/>
-      <c r="I198" s="23"/>
-      <c r="J198" s="23"/>
-    </row>
-    <row r="199" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C199" s="15"/>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
       <c r="F199" s="15"/>
       <c r="G199" s="15"/>
       <c r="H199" s="15"/>
-      <c r="I199" s="23"/>
-      <c r="J199" s="23"/>
-    </row>
-    <row r="200" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C200" s="15"/>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
       <c r="F200" s="15"/>
       <c r="G200" s="15"/>
       <c r="H200" s="15"/>
-      <c r="I200" s="23"/>
-      <c r="J200" s="23"/>
-    </row>
-    <row r="201" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C201" s="15"/>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
       <c r="F201" s="15"/>
       <c r="G201" s="15"/>
       <c r="H201" s="15"/>
-      <c r="I201" s="23"/>
-      <c r="J201" s="23"/>
-    </row>
-    <row r="202" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C202" s="15"/>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
       <c r="F202" s="15"/>
       <c r="G202" s="15"/>
       <c r="H202" s="15"/>
-      <c r="I202" s="23"/>
-      <c r="J202" s="23"/>
-    </row>
-    <row r="203" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C203" s="15"/>
       <c r="D203" s="15"/>
       <c r="E203" s="15"/>
       <c r="F203" s="15"/>
       <c r="G203" s="15"/>
       <c r="H203" s="15"/>
-      <c r="I203" s="23"/>
-      <c r="J203" s="23"/>
-    </row>
-    <row r="204" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C204" s="15"/>
       <c r="D204" s="15"/>
       <c r="E204" s="15"/>
-      <c r="F204" s="17"/>
-      <c r="G204" s="17"/>
+      <c r="F204" s="15"/>
+      <c r="G204" s="15"/>
       <c r="H204" s="15"/>
-      <c r="I204" s="23"/>
-    </row>
-    <row r="205" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C205" s="15"/>
       <c r="D205" s="15"/>
       <c r="E205" s="15"/>
-      <c r="F205" s="17"/>
-      <c r="G205" s="17"/>
+      <c r="F205" s="15"/>
+      <c r="G205" s="15"/>
       <c r="H205" s="15"/>
-      <c r="I205" s="23"/>
-    </row>
-    <row r="206" spans="3:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C206" s="15"/>
       <c r="D206" s="15"/>
       <c r="E206" s="15"/>
-      <c r="F206" s="17"/>
-      <c r="G206" s="17"/>
-      <c r="H206" s="17"/>
-    </row>
-    <row r="207" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F206" s="15"/>
+      <c r="G206" s="15"/>
+      <c r="H206" s="15"/>
+    </row>
+    <row r="207" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C207" s="15"/>
       <c r="D207" s="15"/>
       <c r="E207" s="15"/>
-      <c r="F207" s="17"/>
-      <c r="G207" s="17"/>
-      <c r="H207" s="17"/>
-    </row>
-    <row r="208" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F207" s="15"/>
+      <c r="G207" s="15"/>
+      <c r="H207" s="15"/>
+    </row>
+    <row r="208" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C208" s="15"/>
       <c r="D208" s="15"/>
       <c r="E208" s="15"/>
-      <c r="F208" s="17"/>
-      <c r="G208" s="17"/>
-      <c r="H208" s="17"/>
-    </row>
-    <row r="209" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F208" s="15"/>
+      <c r="G208" s="15"/>
+      <c r="H208" s="15"/>
+    </row>
+    <row r="209" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C209" s="15"/>
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
-      <c r="F209" s="17"/>
-      <c r="G209" s="17"/>
-      <c r="H209" s="17"/>
-    </row>
-    <row r="210" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F209" s="15"/>
+      <c r="G209" s="15"/>
+      <c r="H209" s="15"/>
+    </row>
+    <row r="210" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C210" s="15"/>
       <c r="D210" s="15"/>
       <c r="E210" s="15"/>
-      <c r="F210" s="17"/>
-      <c r="G210" s="17"/>
-      <c r="H210" s="17"/>
-    </row>
-    <row r="211" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F210" s="15"/>
+      <c r="G210" s="15"/>
+      <c r="H210" s="15"/>
+    </row>
+    <row r="211" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C211" s="15"/>
       <c r="D211" s="15"/>
       <c r="E211" s="15"/>
-      <c r="F211" s="17"/>
-      <c r="G211" s="17"/>
-      <c r="H211" s="17"/>
-    </row>
-    <row r="212" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F211" s="15"/>
+      <c r="G211" s="15"/>
+      <c r="H211" s="15"/>
+    </row>
+    <row r="212" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C212" s="15"/>
       <c r="D212" s="15"/>
       <c r="E212" s="15"/>
-      <c r="F212" s="17"/>
-      <c r="G212" s="17"/>
-      <c r="H212" s="17"/>
-    </row>
-    <row r="213" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F212" s="15"/>
+      <c r="G212" s="15"/>
+      <c r="H212" s="15"/>
+    </row>
+    <row r="213" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C213" s="15"/>
       <c r="D213" s="15"/>
       <c r="E213" s="15"/>
-      <c r="F213" s="17"/>
-      <c r="G213" s="17"/>
-      <c r="H213" s="17"/>
-    </row>
-    <row r="214" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F213" s="15"/>
+      <c r="G213" s="15"/>
+      <c r="H213" s="15"/>
+    </row>
+    <row r="214" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C214" s="15"/>
       <c r="D214" s="15"/>
       <c r="E214" s="15"/>
-      <c r="F214" s="17"/>
-      <c r="G214" s="17"/>
-      <c r="H214" s="17"/>
-    </row>
-    <row r="215" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F214" s="15"/>
+      <c r="G214" s="15"/>
+      <c r="H214" s="15"/>
+    </row>
+    <row r="215" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C215" s="15"/>
       <c r="D215" s="15"/>
       <c r="E215" s="15"/>
-      <c r="F215" s="17"/>
-      <c r="G215" s="17"/>
-      <c r="H215" s="17"/>
-    </row>
-    <row r="216" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F215" s="15"/>
+      <c r="G215" s="15"/>
+      <c r="H215" s="15"/>
+    </row>
+    <row r="216" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C216" s="15"/>
       <c r="D216" s="15"/>
       <c r="E216" s="15"/>
-      <c r="F216" s="17"/>
-      <c r="G216" s="17"/>
-      <c r="H216" s="17"/>
-    </row>
-    <row r="217" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F216" s="15"/>
+      <c r="G216" s="15"/>
+      <c r="H216" s="15"/>
+    </row>
+    <row r="217" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C217" s="15"/>
       <c r="D217" s="15"/>
       <c r="E217" s="15"/>
-      <c r="F217" s="17"/>
-      <c r="G217" s="17"/>
-      <c r="H217" s="17"/>
-    </row>
-    <row r="218" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F217" s="15"/>
+      <c r="G217" s="15"/>
+      <c r="H217" s="15"/>
+    </row>
+    <row r="218" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C218" s="15"/>
       <c r="D218" s="15"/>
       <c r="E218" s="15"/>
-      <c r="F218" s="17"/>
-      <c r="G218" s="17"/>
-      <c r="H218" s="17"/>
-    </row>
-    <row r="219" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F218" s="15"/>
+      <c r="G218" s="15"/>
+      <c r="H218" s="15"/>
+    </row>
+    <row r="219" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C219" s="15"/>
       <c r="D219" s="15"/>
       <c r="E219" s="15"/>
-      <c r="F219" s="17"/>
-      <c r="G219" s="17"/>
-      <c r="H219" s="17"/>
-    </row>
-    <row r="220" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F219" s="15"/>
+      <c r="G219" s="15"/>
+      <c r="H219" s="15"/>
+    </row>
+    <row r="220" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C220" s="15"/>
       <c r="D220" s="15"/>
       <c r="E220" s="15"/>
-      <c r="F220" s="17"/>
-      <c r="G220" s="17"/>
-      <c r="H220" s="17"/>
-    </row>
-    <row r="221" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F220" s="15"/>
+      <c r="G220" s="15"/>
+      <c r="H220" s="15"/>
+    </row>
+    <row r="221" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C221" s="15"/>
       <c r="D221" s="15"/>
       <c r="E221" s="15"/>
-      <c r="F221" s="17"/>
-      <c r="G221" s="17"/>
-      <c r="H221" s="17"/>
-    </row>
-    <row r="222" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F221" s="15"/>
+      <c r="G221" s="15"/>
+      <c r="H221" s="15"/>
+    </row>
+    <row r="222" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C222" s="15"/>
       <c r="D222" s="15"/>
       <c r="E222" s="15"/>
-      <c r="F222" s="17"/>
-      <c r="G222" s="17"/>
-      <c r="H222" s="17"/>
-    </row>
-    <row r="223" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F222" s="15"/>
+      <c r="G222" s="15"/>
+      <c r="H222" s="15"/>
+    </row>
+    <row r="223" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C223" s="15"/>
       <c r="D223" s="15"/>
       <c r="E223" s="15"/>
-      <c r="F223" s="17"/>
-      <c r="G223" s="17"/>
-      <c r="H223" s="17"/>
-    </row>
-    <row r="224" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F223" s="15"/>
+      <c r="G223" s="15"/>
+      <c r="H223" s="15"/>
+    </row>
+    <row r="224" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C224" s="15"/>
       <c r="D224" s="15"/>
       <c r="E224" s="15"/>
-      <c r="F224" s="17"/>
-      <c r="G224" s="17"/>
-      <c r="H224" s="17"/>
-    </row>
-    <row r="225" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F224" s="15"/>
+      <c r="G224" s="15"/>
+      <c r="H224" s="15"/>
+    </row>
+    <row r="225" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C225" s="15"/>
       <c r="D225" s="15"/>
       <c r="E225" s="15"/>
-      <c r="F225" s="17"/>
-      <c r="G225" s="17"/>
-      <c r="H225" s="17"/>
-    </row>
-    <row r="226" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F225" s="15"/>
+      <c r="G225" s="15"/>
+      <c r="H225" s="15"/>
+    </row>
+    <row r="226" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C226" s="15"/>
       <c r="D226" s="15"/>
       <c r="E226" s="15"/>
-      <c r="F226" s="17"/>
-      <c r="G226" s="17"/>
-      <c r="H226" s="17"/>
-    </row>
-    <row r="227" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F226" s="15"/>
+      <c r="G226" s="15"/>
+      <c r="H226" s="15"/>
+    </row>
+    <row r="227" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C227" s="15"/>
       <c r="D227" s="15"/>
       <c r="E227" s="15"/>
-      <c r="F227" s="17"/>
-      <c r="G227" s="17"/>
-      <c r="H227" s="17"/>
-    </row>
-    <row r="228" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F227" s="15"/>
+      <c r="G227" s="15"/>
+      <c r="H227" s="15"/>
+    </row>
+    <row r="228" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C228" s="15"/>
       <c r="D228" s="15"/>
       <c r="E228" s="15"/>
-      <c r="F228" s="17"/>
-      <c r="G228" s="17"/>
-      <c r="H228" s="17"/>
-    </row>
-    <row r="229" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F228" s="15"/>
+      <c r="G228" s="15"/>
+      <c r="H228" s="15"/>
+    </row>
+    <row r="229" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C229" s="15"/>
       <c r="D229" s="15"/>
       <c r="E229" s="15"/>
-      <c r="F229" s="17"/>
-      <c r="G229" s="17"/>
-      <c r="H229" s="17"/>
-    </row>
-    <row r="230" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F229" s="15"/>
+      <c r="G229" s="15"/>
+      <c r="H229" s="15"/>
+    </row>
+    <row r="230" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C230" s="15"/>
       <c r="D230" s="15"/>
       <c r="E230" s="15"/>
-      <c r="F230" s="17"/>
-      <c r="G230" s="17"/>
-      <c r="H230" s="17"/>
-    </row>
-    <row r="231" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C231" s="17"/>
-      <c r="D231" s="17"/>
-      <c r="E231" s="17"/>
-      <c r="F231" s="17"/>
-      <c r="G231" s="17"/>
-      <c r="H231" s="17"/>
-    </row>
-    <row r="232" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C232" s="17"/>
-      <c r="D232" s="17"/>
-      <c r="E232" s="17"/>
-      <c r="F232" s="17"/>
-      <c r="G232" s="17"/>
-      <c r="H232" s="17"/>
-    </row>
-    <row r="233" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C233" s="17"/>
-      <c r="D233" s="17"/>
-      <c r="E233" s="17"/>
-      <c r="F233" s="17"/>
-      <c r="G233" s="17"/>
-      <c r="H233" s="17"/>
-    </row>
-    <row r="234" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C234" s="17"/>
-      <c r="D234" s="17"/>
-      <c r="E234" s="17"/>
-      <c r="F234" s="17"/>
-      <c r="G234" s="17"/>
-      <c r="H234" s="17"/>
-    </row>
-    <row r="235" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C235" s="17"/>
-      <c r="D235" s="17"/>
-      <c r="E235" s="17"/>
-      <c r="F235" s="17"/>
-      <c r="G235" s="17"/>
-      <c r="H235" s="17"/>
-    </row>
-    <row r="236" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C236" s="17"/>
-      <c r="D236" s="17"/>
-      <c r="E236" s="17"/>
-      <c r="F236" s="17"/>
-      <c r="G236" s="17"/>
-      <c r="H236" s="17"/>
-    </row>
-    <row r="237" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C237" s="17"/>
-      <c r="D237" s="17"/>
-      <c r="E237" s="17"/>
-      <c r="F237" s="17"/>
-      <c r="G237" s="17"/>
-      <c r="H237" s="17"/>
-    </row>
-    <row r="238" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C238" s="17"/>
-      <c r="D238" s="17"/>
-      <c r="E238" s="17"/>
-      <c r="F238" s="17"/>
-      <c r="G238" s="17"/>
-      <c r="H238" s="17"/>
-    </row>
-    <row r="239" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C239" s="17"/>
-      <c r="D239" s="17"/>
-      <c r="E239" s="17"/>
-      <c r="F239" s="17"/>
-      <c r="G239" s="17"/>
-      <c r="H239" s="17"/>
-    </row>
-    <row r="240" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C240" s="17"/>
-      <c r="D240" s="17"/>
-      <c r="E240" s="17"/>
-      <c r="F240" s="17"/>
-      <c r="G240" s="17"/>
-      <c r="H240" s="17"/>
-    </row>
-    <row r="241" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C241" s="17"/>
-      <c r="D241" s="17"/>
-      <c r="E241" s="17"/>
-      <c r="F241" s="17"/>
-      <c r="G241" s="17"/>
-      <c r="H241" s="17"/>
-    </row>
-    <row r="242" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C242" s="17"/>
-      <c r="D242" s="17"/>
-      <c r="E242" s="17"/>
-      <c r="F242" s="17"/>
-      <c r="G242" s="17"/>
-      <c r="H242" s="17"/>
-    </row>
-    <row r="243" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C243" s="17"/>
-      <c r="D243" s="17"/>
-      <c r="E243" s="17"/>
-      <c r="F243" s="17"/>
-      <c r="G243" s="17"/>
-      <c r="H243" s="17"/>
-    </row>
-    <row r="244" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C244" s="17"/>
-      <c r="D244" s="17"/>
-      <c r="E244" s="17"/>
-      <c r="F244" s="17"/>
-      <c r="G244" s="17"/>
-      <c r="H244" s="17"/>
-    </row>
-    <row r="245" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C245" s="17"/>
-      <c r="D245" s="17"/>
-      <c r="E245" s="17"/>
-      <c r="F245" s="17"/>
-      <c r="G245" s="17"/>
-      <c r="H245" s="17"/>
-    </row>
-    <row r="246" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C246" s="17"/>
-      <c r="D246" s="17"/>
-      <c r="E246" s="17"/>
-      <c r="F246" s="17"/>
-      <c r="G246" s="17"/>
-      <c r="H246" s="17"/>
-    </row>
-    <row r="247" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C247" s="17"/>
-      <c r="D247" s="17"/>
-      <c r="E247" s="17"/>
-      <c r="F247" s="17"/>
-      <c r="G247" s="17"/>
-      <c r="H247" s="17"/>
-    </row>
-    <row r="248" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C248" s="17"/>
-      <c r="D248" s="17"/>
-      <c r="E248" s="17"/>
-      <c r="F248" s="17"/>
-      <c r="G248" s="17"/>
-      <c r="H248" s="17"/>
-    </row>
-    <row r="249" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C249" s="17"/>
-      <c r="D249" s="17"/>
-      <c r="E249" s="17"/>
-      <c r="F249" s="17"/>
-      <c r="G249" s="17"/>
-      <c r="H249" s="17"/>
-    </row>
-    <row r="250" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C250" s="17"/>
-      <c r="D250" s="17"/>
-      <c r="E250" s="17"/>
-      <c r="F250" s="17"/>
-      <c r="G250" s="17"/>
-      <c r="H250" s="17"/>
-    </row>
-    <row r="251" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C251" s="17"/>
-      <c r="D251" s="17"/>
-      <c r="E251" s="17"/>
-      <c r="F251" s="17"/>
-      <c r="G251" s="17"/>
-      <c r="H251" s="17"/>
-    </row>
-    <row r="252" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C252" s="17"/>
-      <c r="D252" s="17"/>
-      <c r="E252" s="17"/>
-      <c r="F252" s="17"/>
-      <c r="G252" s="17"/>
-      <c r="H252" s="17"/>
-    </row>
-    <row r="253" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C253" s="17"/>
-      <c r="D253" s="17"/>
-      <c r="E253" s="17"/>
-      <c r="F253" s="17"/>
-      <c r="G253" s="17"/>
-      <c r="H253" s="17"/>
-    </row>
-    <row r="254" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C254" s="17"/>
-      <c r="D254" s="17"/>
-      <c r="E254" s="17"/>
-      <c r="F254" s="17"/>
-      <c r="G254" s="17"/>
-      <c r="H254" s="17"/>
+      <c r="F230" s="15"/>
+      <c r="G230" s="15"/>
+      <c r="H230" s="15"/>
+    </row>
+    <row r="231" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C231" s="15"/>
+      <c r="D231" s="15"/>
+      <c r="E231" s="15"/>
+      <c r="F231" s="15"/>
+      <c r="G231" s="15"/>
+      <c r="H231" s="15"/>
+    </row>
+    <row r="232" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C232" s="15"/>
+      <c r="D232" s="15"/>
+      <c r="E232" s="15"/>
+      <c r="F232" s="15"/>
+      <c r="G232" s="15"/>
+      <c r="H232" s="15"/>
+    </row>
+    <row r="233" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C233" s="15"/>
+      <c r="D233" s="15"/>
+      <c r="E233" s="15"/>
+      <c r="F233" s="15"/>
+      <c r="G233" s="15"/>
+      <c r="H233" s="15"/>
+    </row>
+    <row r="234" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C234" s="15"/>
+      <c r="D234" s="15"/>
+      <c r="E234" s="15"/>
+      <c r="F234" s="15"/>
+      <c r="G234" s="15"/>
+      <c r="H234" s="15"/>
+    </row>
+    <row r="235" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C235" s="15"/>
+      <c r="D235" s="15"/>
+      <c r="E235" s="15"/>
+      <c r="F235" s="15"/>
+      <c r="G235" s="15"/>
+      <c r="H235" s="15"/>
+    </row>
+    <row r="236" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C236" s="15"/>
+      <c r="D236" s="15"/>
+      <c r="E236" s="15"/>
+      <c r="F236" s="15"/>
+      <c r="G236" s="15"/>
+      <c r="H236" s="15"/>
+    </row>
+    <row r="237" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C237" s="15"/>
+      <c r="D237" s="15"/>
+      <c r="E237" s="15"/>
+      <c r="F237" s="15"/>
+      <c r="G237" s="15"/>
+      <c r="H237" s="15"/>
+    </row>
+    <row r="238" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C238" s="15"/>
+      <c r="D238" s="15"/>
+      <c r="E238" s="15"/>
+      <c r="F238" s="15"/>
+      <c r="G238" s="15"/>
+      <c r="H238" s="15"/>
+    </row>
+    <row r="239" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C239" s="15"/>
+      <c r="D239" s="15"/>
+      <c r="E239" s="15"/>
+      <c r="F239" s="15"/>
+      <c r="G239" s="15"/>
+      <c r="H239" s="15"/>
+    </row>
+    <row r="240" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C240" s="15"/>
+      <c r="D240" s="15"/>
+      <c r="E240" s="15"/>
+      <c r="F240" s="15"/>
+      <c r="G240" s="15"/>
+      <c r="H240" s="15"/>
+    </row>
+    <row r="241" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C241" s="15"/>
+      <c r="D241" s="15"/>
+      <c r="E241" s="15"/>
+      <c r="F241" s="15"/>
+      <c r="G241" s="15"/>
+      <c r="H241" s="15"/>
+    </row>
+    <row r="242" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C242" s="15"/>
+      <c r="D242" s="15"/>
+      <c r="E242" s="15"/>
+      <c r="F242" s="15"/>
+      <c r="G242" s="15"/>
+      <c r="H242" s="15"/>
+    </row>
+    <row r="243" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C243" s="15"/>
+      <c r="D243" s="15"/>
+      <c r="E243" s="15"/>
+      <c r="F243" s="15"/>
+      <c r="G243" s="15"/>
+      <c r="H243" s="15"/>
+    </row>
+    <row r="244" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C244" s="15"/>
+      <c r="D244" s="15"/>
+      <c r="E244" s="15"/>
+      <c r="F244" s="15"/>
+      <c r="G244" s="15"/>
+      <c r="H244" s="15"/>
+    </row>
+    <row r="245" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C245" s="15"/>
+      <c r="D245" s="15"/>
+      <c r="E245" s="15"/>
+      <c r="F245" s="15"/>
+      <c r="G245" s="15"/>
+      <c r="H245" s="15"/>
+    </row>
+    <row r="246" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C246" s="15"/>
+      <c r="D246" s="15"/>
+      <c r="E246" s="15"/>
+      <c r="F246" s="15"/>
+      <c r="G246" s="15"/>
+      <c r="H246" s="15"/>
+    </row>
+    <row r="247" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C247" s="15"/>
+      <c r="D247" s="15"/>
+      <c r="E247" s="15"/>
+      <c r="F247" s="15"/>
+      <c r="G247" s="15"/>
+      <c r="H247" s="15"/>
+    </row>
+    <row r="248" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C248" s="15"/>
+      <c r="D248" s="15"/>
+      <c r="E248" s="15"/>
+      <c r="F248" s="15"/>
+      <c r="G248" s="15"/>
+      <c r="H248" s="15"/>
+    </row>
+    <row r="249" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C249" s="15"/>
+      <c r="D249" s="15"/>
+      <c r="E249" s="15"/>
+      <c r="F249" s="15"/>
+      <c r="G249" s="15"/>
+      <c r="H249" s="15"/>
+    </row>
+    <row r="250" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C250" s="15"/>
+      <c r="D250" s="15"/>
+      <c r="E250" s="15"/>
+      <c r="F250" s="15"/>
+      <c r="G250" s="15"/>
+      <c r="H250" s="15"/>
+    </row>
+    <row r="251" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C251" s="15"/>
+      <c r="D251" s="15"/>
+      <c r="E251" s="15"/>
+      <c r="F251" s="15"/>
+      <c r="G251" s="15"/>
+      <c r="H251" s="15"/>
+    </row>
+    <row r="252" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C252" s="15"/>
+      <c r="D252" s="15"/>
+      <c r="E252" s="15"/>
+      <c r="F252" s="15"/>
+      <c r="G252" s="15"/>
+      <c r="H252" s="15"/>
+    </row>
+    <row r="253" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C253" s="15"/>
+      <c r="D253" s="15"/>
+      <c r="E253" s="15"/>
+      <c r="F253" s="15"/>
+      <c r="G253" s="15"/>
+      <c r="H253" s="15"/>
+    </row>
+    <row r="254" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C254" s="15"/>
+      <c r="D254" s="15"/>
+      <c r="E254" s="15"/>
+      <c r="F254" s="15"/>
+      <c r="G254" s="15"/>
+      <c r="H254" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="A101:A102"/>
     <mergeCell ref="A2:A25"/>
     <mergeCell ref="C14:C25"/>
     <mergeCell ref="A26:A40"/>
@@ -6716,31 +6799,37 @@
     <mergeCell ref="A55:A67"/>
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="C113:C117"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="A68:A73"/>
     <mergeCell ref="B14:B25"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="C26:C33"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="C113:C117"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
     <mergeCell ref="C118:C119"/>
     <mergeCell ref="A113:A120"/>
     <mergeCell ref="G8:G9"/>
@@ -6755,12 +6844,646 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6606E4FC-447B-4C4B-8667-76C225606924}">
+  <dimension ref="A1:B77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="253" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="237" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="253" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="253" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="253" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="253" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="253" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="253" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="253" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="253" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="253" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="253" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="253" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="253" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="253" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="253" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="248" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" s="253" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" s="253" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" s="254" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B55" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B56" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B57" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B58" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B59" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B60" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B61" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B62" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B63" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B64" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B66" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B67" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B68" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B69" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B70" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B71" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B72" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B73" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B74" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B75" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B76" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="B77" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/data/data-raw/Table of compounds_030622.xlsx
+++ b/data/data-raw/Table of compounds_030622.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_C9C3E2DFE6E5ECF5CE906EFDC2549BB3DEDA2518" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C2299E5-814C-491F-98C0-63B5A0166197}"/>
+  <xr:revisionPtr revIDLastSave="221" documentId="11_C9C3E2DFE6E5ECF5CE906EFDC2549BB3DEDA2518" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D17792E5-65CF-4AEA-B598-B2EB92848439}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experimental Design" sheetId="2" r:id="rId1"/>
     <sheet name="Drugs Mapping" sheetId="3" r:id="rId2"/>
+    <sheet name="Batch Mapping" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -20,8 +21,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={5CC803C2-7ABE-4A92-82B1-72B88A9AD957}</author>
+  </authors>
+  <commentList>
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{5CC803C2-7ABE-4A92-82B1-72B88A9AD957}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Removed all "Control - time zero" expressions, as I could not match any of them</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="392">
   <si>
     <t>Samples</t>
   </si>
@@ -149,9 +168,6 @@
     <t>RAF265</t>
   </si>
   <si>
-    <t>Sotorasib (AMG-510)</t>
-  </si>
-  <si>
     <t>35 uM</t>
   </si>
   <si>
@@ -1047,13 +1063,212 @@
   </si>
   <si>
     <t>Mefloq</t>
+  </si>
+  <si>
+    <t>exp010821</t>
+  </si>
+  <si>
+    <t>exp040821</t>
+  </si>
+  <si>
+    <t>exp300821</t>
+  </si>
+  <si>
+    <t>exp200921</t>
+  </si>
+  <si>
+    <t>exp181021</t>
+  </si>
+  <si>
+    <t>exp151121</t>
+  </si>
+  <si>
+    <t>exp070222</t>
+  </si>
+  <si>
+    <t>exp220322</t>
+  </si>
+  <si>
+    <t>Batch_ID</t>
+  </si>
+  <si>
+    <t>exp130921_in vivo</t>
+  </si>
+  <si>
+    <t>exp211221</t>
+  </si>
+  <si>
+    <t>exp200921_dose response osim</t>
+  </si>
+  <si>
+    <t>Excluded experiences</t>
+  </si>
+  <si>
+    <t>exp300821_cor</t>
+  </si>
+  <si>
+    <t>exp281022_time course</t>
+  </si>
+  <si>
+    <t>exp211221cor</t>
+  </si>
+  <si>
+    <t>exp130921_1</t>
+  </si>
+  <si>
+    <t>exp130921</t>
+  </si>
+  <si>
+    <t>exp130921 is complete (more barcode Ids, and more colnames avalaible)</t>
+  </si>
+  <si>
+    <t>Same datasets, except that exp300821 keeps empty columns for no reason.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> exp281022</t>
+  </si>
+  <si>
+    <t>exp281022_mod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On shared probe Ids, the 4 controls have the same expression between both experiences. However, some are present in dose response, some only in the other experiment. </t>
+  </si>
+  <si>
+    <t>In vivo not considered? Currently marked as excluded in Vera's code.</t>
+  </si>
+  <si>
+    <t>Both experiences are recent. Have to check the control samples</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Exp281022 is the most complete (same barcode Ids, but more samples sequenced). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Both experiences are recent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Have to check the control samples</t>
+    </r>
+  </si>
+  <si>
+    <t>ctl</t>
+  </si>
+  <si>
+    <t>protac</t>
+  </si>
+  <si>
+    <t>Ctrl</t>
+  </si>
+  <si>
+    <t>Cetuximab</t>
+  </si>
+  <si>
+    <t>cetux</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>exp130921_vivo</t>
+  </si>
+  <si>
+    <t>exp200921_dose</t>
+  </si>
+  <si>
+    <t>exp281022_time</t>
+  </si>
+  <si>
+    <t>exp271221</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Exp211221cor is the most complete (same colnames, but more sampled barcode IDs). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dates do not match</t>
+    </r>
+  </si>
+  <si>
+    <t>y-27632 dihydrochloride</t>
+  </si>
+  <si>
+    <t>Sotora</t>
+  </si>
+  <si>
+    <t>BGJ398</t>
+  </si>
+  <si>
+    <t>Crizot</t>
+  </si>
+  <si>
+    <t>TAE684</t>
+  </si>
+  <si>
+    <t>Suniti</t>
+  </si>
+  <si>
+    <t>Plurip</t>
+  </si>
+  <si>
+    <t>Trimet</t>
+  </si>
+  <si>
+    <t>NAcety</t>
+  </si>
+  <si>
+    <t>Nutlin</t>
+  </si>
+  <si>
+    <t>Ibudil</t>
+  </si>
+  <si>
+    <t>NaButy</t>
+  </si>
+  <si>
+    <t>Tricho</t>
+  </si>
+  <si>
+    <t>MG132z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1112,6 +1327,44 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="9"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="5"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1936,7 +2189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="350">
+  <cellXfs count="366">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2350,6 +2603,48 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2633,7 +2928,51 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2696,11 +3035,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A9CE039-12FB-4A5F-A68F-777D338F2EE2}" name="Table1" displayName="Table1" ref="A1:B77" totalsRowShown="0">
-  <autoFilter ref="A1:B77" xr:uid="{1A9CE039-12FB-4A5F-A68F-777D338F2EE2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A9CE039-12FB-4A5F-A68F-777D338F2EE2}" name="Table1" displayName="Table1" ref="A1:B97" totalsRowShown="0">
+  <autoFilter ref="A1:B97" xr:uid="{1A9CE039-12FB-4A5F-A68F-777D338F2EE2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B81">
+    <sortCondition ref="A1:A81"/>
+  </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C833621C-1E47-4C45-8F7B-9F496D081E23}" name="Samples" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{0569DB07-56D4-46A1-8998-DAE8B18F7DD3}" name="Samples_ID" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C833621C-1E47-4C45-8F7B-9F496D081E23}" name="Samples" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{0569DB07-56D4-46A1-8998-DAE8B18F7DD3}" name="Samples_ID" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C2EBFDB7-7C0A-4BD5-A04E-4602FDC4A7D2}" name="Table2" displayName="Table2" ref="A1:D15" totalsRowShown="0">
+  <autoFilter ref="A1:D15" xr:uid="{C2EBFDB7-7C0A-4BD5-A04E-4602FDC4A7D2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C13">
+    <sortCondition ref="B1:B13"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="4" xr3:uid="{2F51DC44-A16D-4C87-B8E4-4754ADD10661}" name="Batch_ID" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{E8A761DC-B001-4CC8-AFA4-5FBC1C1B9527}" name="Filename" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{1D0F9CB7-8150-4F4B-8898-BFF850A5FB44}" name="Excluded experiences" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A50C6C58-7396-4D5C-8AE7-361FA1E3F9C2}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2967,12 +3325,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C16" dT="2025-02-23T21:57:24.45" personId="{00000000-0000-0000-0000-000000000000}" id="{5CC803C2-7ABE-4A92-82B1-72B88A9AD957}">
+    <text>Removed all "Control - time zero" expressions, as I could not match any of them</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -3008,17 +3374,17 @@
         <v>2</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="277" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="291" t="s">
+      <c r="A2" s="293" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="295"/>
+      <c r="B2" s="307" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="311"/>
       <c r="D2" s="4">
         <v>2</v>
       </c>
@@ -3032,9 +3398,9 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="278"/>
-      <c r="B3" s="346"/>
-      <c r="C3" s="296"/>
+      <c r="A3" s="294"/>
+      <c r="B3" s="362"/>
+      <c r="C3" s="312"/>
       <c r="D3" s="4">
         <v>2</v>
       </c>
@@ -3048,9 +3414,9 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="278"/>
-      <c r="B4" s="346"/>
-      <c r="C4" s="296"/>
+      <c r="A4" s="294"/>
+      <c r="B4" s="362"/>
+      <c r="C4" s="312"/>
       <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
@@ -3064,9 +3430,9 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="278"/>
-      <c r="B5" s="346"/>
-      <c r="C5" s="296"/>
+      <c r="A5" s="294"/>
+      <c r="B5" s="362"/>
+      <c r="C5" s="312"/>
       <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
@@ -3080,9 +3446,9 @@
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="278"/>
-      <c r="B6" s="346"/>
-      <c r="C6" s="296"/>
+      <c r="A6" s="294"/>
+      <c r="B6" s="362"/>
+      <c r="C6" s="312"/>
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
@@ -3096,9 +3462,9 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="278"/>
-      <c r="B7" s="346"/>
-      <c r="C7" s="296"/>
+      <c r="A7" s="294"/>
+      <c r="B7" s="362"/>
+      <c r="C7" s="312"/>
       <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
@@ -3112,102 +3478,102 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="278"/>
-      <c r="B8" s="346"/>
-      <c r="C8" s="296"/>
-      <c r="D8" s="264" t="s">
+      <c r="A8" s="294"/>
+      <c r="B8" s="362"/>
+      <c r="C8" s="312"/>
+      <c r="D8" s="280" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="264"/>
-      <c r="F8" s="264" t="s">
+      <c r="E8" s="280"/>
+      <c r="F8" s="280" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="264" t="s">
-        <v>153</v>
-      </c>
-      <c r="H8" s="266" t="s">
-        <v>91</v>
+      <c r="G8" s="280" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="282" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="278"/>
-      <c r="B9" s="346"/>
-      <c r="C9" s="296"/>
-      <c r="D9" s="265"/>
-      <c r="E9" s="265"/>
-      <c r="F9" s="265"/>
-      <c r="G9" s="265"/>
-      <c r="H9" s="267"/>
+      <c r="A9" s="294"/>
+      <c r="B9" s="362"/>
+      <c r="C9" s="312"/>
+      <c r="D9" s="281"/>
+      <c r="E9" s="281"/>
+      <c r="F9" s="281"/>
+      <c r="G9" s="281"/>
+      <c r="H9" s="283"/>
     </row>
     <row r="10" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="278"/>
-      <c r="B10" s="346"/>
-      <c r="C10" s="297"/>
-      <c r="D10" s="270" t="s">
+      <c r="A10" s="294"/>
+      <c r="B10" s="362"/>
+      <c r="C10" s="313"/>
+      <c r="D10" s="286" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="272"/>
-      <c r="F10" s="270" t="s">
+      <c r="E10" s="288"/>
+      <c r="F10" s="286" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="270" t="s">
-        <v>153</v>
-      </c>
-      <c r="H10" s="275" t="s">
-        <v>91</v>
+      <c r="G10" s="286" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="291" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="278"/>
-      <c r="B11" s="346"/>
-      <c r="C11" s="297"/>
-      <c r="D11" s="271"/>
-      <c r="E11" s="273"/>
-      <c r="F11" s="274"/>
-      <c r="G11" s="274"/>
-      <c r="H11" s="276"/>
+      <c r="A11" s="294"/>
+      <c r="B11" s="362"/>
+      <c r="C11" s="313"/>
+      <c r="D11" s="287"/>
+      <c r="E11" s="289"/>
+      <c r="F11" s="290"/>
+      <c r="G11" s="290"/>
+      <c r="H11" s="292"/>
       <c r="I11" s="205"/>
     </row>
     <row r="12" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="278"/>
-      <c r="B12" s="346"/>
-      <c r="C12" s="297"/>
+      <c r="A12" s="294"/>
+      <c r="B12" s="362"/>
+      <c r="C12" s="313"/>
       <c r="D12" s="204" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="208"/>
       <c r="F12" s="141" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="141" t="s">
         <v>199</v>
-      </c>
-      <c r="G12" s="141" t="s">
-        <v>200</v>
       </c>
       <c r="H12" s="206"/>
       <c r="I12" s="205"/>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="278"/>
-      <c r="B13" s="347"/>
-      <c r="C13" s="298"/>
+      <c r="A13" s="294"/>
+      <c r="B13" s="363"/>
+      <c r="C13" s="314"/>
       <c r="D13" s="203" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="209"/>
       <c r="F13" s="203" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G13" s="203" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H13" s="207"/>
       <c r="I13" s="205"/>
     </row>
     <row r="14" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="278"/>
-      <c r="B14" s="291" t="s">
+      <c r="A14" s="294"/>
+      <c r="B14" s="307" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="295"/>
+      <c r="C14" s="311"/>
       <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
@@ -3221,9 +3587,9 @@
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="278"/>
-      <c r="B15" s="292"/>
-      <c r="C15" s="322"/>
+      <c r="A15" s="294"/>
+      <c r="B15" s="308"/>
+      <c r="C15" s="338"/>
       <c r="D15" s="5" t="s">
         <v>18</v>
       </c>
@@ -3237,9 +3603,9 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="278"/>
-      <c r="B16" s="292"/>
-      <c r="C16" s="322"/>
+      <c r="A16" s="294"/>
+      <c r="B16" s="308"/>
+      <c r="C16" s="338"/>
       <c r="D16" s="5" t="s">
         <v>18</v>
       </c>
@@ -3253,9 +3619,9 @@
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="278"/>
-      <c r="B17" s="292"/>
-      <c r="C17" s="322"/>
+      <c r="A17" s="294"/>
+      <c r="B17" s="308"/>
+      <c r="C17" s="338"/>
       <c r="D17" s="5" t="s">
         <v>18</v>
       </c>
@@ -3269,9 +3635,9 @@
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="278"/>
-      <c r="B18" s="292"/>
-      <c r="C18" s="322"/>
+      <c r="A18" s="294"/>
+      <c r="B18" s="308"/>
+      <c r="C18" s="338"/>
       <c r="D18" s="5" t="s">
         <v>18</v>
       </c>
@@ -3285,9 +3651,9 @@
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="278"/>
-      <c r="B19" s="292"/>
-      <c r="C19" s="322"/>
+      <c r="A19" s="294"/>
+      <c r="B19" s="308"/>
+      <c r="C19" s="338"/>
       <c r="D19" s="5" t="s">
         <v>18</v>
       </c>
@@ -3301,9 +3667,9 @@
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="278"/>
-      <c r="B20" s="292"/>
-      <c r="C20" s="323"/>
+      <c r="A20" s="294"/>
+      <c r="B20" s="308"/>
+      <c r="C20" s="339"/>
       <c r="D20" s="12" t="s">
         <v>18</v>
       </c>
@@ -3317,69 +3683,69 @@
       <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="278"/>
-      <c r="B21" s="292"/>
-      <c r="C21" s="323"/>
-      <c r="D21" s="255" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="255"/>
-      <c r="F21" s="255" t="s">
+      <c r="A21" s="294"/>
+      <c r="B21" s="308"/>
+      <c r="C21" s="339"/>
+      <c r="D21" s="271" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="271"/>
+      <c r="F21" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="255" t="s">
-        <v>153</v>
-      </c>
-      <c r="H21" s="257" t="s">
-        <v>91</v>
+      <c r="G21" s="271" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="273" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="278"/>
-      <c r="B22" s="292"/>
-      <c r="C22" s="323"/>
-      <c r="D22" s="256"/>
-      <c r="E22" s="256"/>
-      <c r="F22" s="256"/>
-      <c r="G22" s="256"/>
-      <c r="H22" s="258"/>
+      <c r="A22" s="294"/>
+      <c r="B22" s="308"/>
+      <c r="C22" s="339"/>
+      <c r="D22" s="272"/>
+      <c r="E22" s="272"/>
+      <c r="F22" s="272"/>
+      <c r="G22" s="272"/>
+      <c r="H22" s="274"/>
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="278"/>
-      <c r="B23" s="292"/>
-      <c r="C23" s="323"/>
+      <c r="A23" s="294"/>
+      <c r="B23" s="308"/>
+      <c r="C23" s="339"/>
       <c r="D23" s="24" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="G23" s="21" t="s">
-        <v>200</v>
-      </c>
       <c r="H23" s="143"/>
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="278"/>
-      <c r="B24" s="292"/>
-      <c r="C24" s="323"/>
+      <c r="A24" s="294"/>
+      <c r="B24" s="308"/>
+      <c r="C24" s="339"/>
       <c r="D24" s="142" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="142"/>
       <c r="F24" s="142" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G24" s="142" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H24" s="144"/>
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="279"/>
-      <c r="B25" s="292"/>
-      <c r="C25" s="324"/>
+      <c r="A25" s="295"/>
+      <c r="B25" s="308"/>
+      <c r="C25" s="340"/>
       <c r="D25" s="120" t="s">
         <v>19</v>
       </c>
@@ -3395,13 +3761,13 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="325" t="s">
+      <c r="A26" s="341" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="293" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" s="301" t="s">
+      <c r="B26" s="309" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="317" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="122" t="s">
@@ -3421,9 +3787,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="326"/>
-      <c r="B27" s="331"/>
-      <c r="C27" s="302"/>
+      <c r="A27" s="342"/>
+      <c r="B27" s="347"/>
+      <c r="C27" s="318"/>
       <c r="D27" s="125" t="s">
         <v>18</v>
       </c>
@@ -3439,9 +3805,9 @@
       <c r="H27" s="127"/>
     </row>
     <row r="28" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="326"/>
-      <c r="B28" s="331"/>
-      <c r="C28" s="302"/>
+      <c r="A28" s="342"/>
+      <c r="B28" s="347"/>
+      <c r="C28" s="318"/>
       <c r="D28" s="128" t="s">
         <v>18</v>
       </c>
@@ -3457,9 +3823,9 @@
       <c r="H28" s="129"/>
     </row>
     <row r="29" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="326"/>
-      <c r="B29" s="331"/>
-      <c r="C29" s="302"/>
+      <c r="A29" s="342"/>
+      <c r="B29" s="347"/>
+      <c r="C29" s="318"/>
       <c r="D29" s="128" t="s">
         <v>18</v>
       </c>
@@ -3475,9 +3841,9 @@
       <c r="H29" s="129"/>
     </row>
     <row r="30" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="326"/>
-      <c r="B30" s="331"/>
-      <c r="C30" s="302"/>
+      <c r="A30" s="342"/>
+      <c r="B30" s="347"/>
+      <c r="C30" s="318"/>
       <c r="D30" s="128" t="s">
         <v>18</v>
       </c>
@@ -3493,9 +3859,9 @@
       <c r="H30" s="129"/>
     </row>
     <row r="31" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="326"/>
-      <c r="B31" s="331"/>
-      <c r="C31" s="302"/>
+      <c r="A31" s="342"/>
+      <c r="B31" s="347"/>
+      <c r="C31" s="318"/>
       <c r="D31" s="128" t="s">
         <v>18</v>
       </c>
@@ -3511,9 +3877,9 @@
       <c r="H31" s="129"/>
     </row>
     <row r="32" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="326"/>
-      <c r="B32" s="331"/>
-      <c r="C32" s="302"/>
+      <c r="A32" s="342"/>
+      <c r="B32" s="347"/>
+      <c r="C32" s="318"/>
       <c r="D32" s="128" t="s">
         <v>18</v>
       </c>
@@ -3529,9 +3895,9 @@
       <c r="H32" s="129"/>
     </row>
     <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="326"/>
-      <c r="B33" s="331"/>
-      <c r="C33" s="303"/>
+      <c r="A33" s="342"/>
+      <c r="B33" s="347"/>
+      <c r="C33" s="319"/>
       <c r="D33" s="166" t="s">
         <v>18</v>
       </c>
@@ -3547,8 +3913,8 @@
       <c r="H33" s="168"/>
     </row>
     <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="326"/>
-      <c r="B34" s="331"/>
+      <c r="A34" s="342"/>
+      <c r="B34" s="347"/>
       <c r="C34" s="138" t="s">
         <v>35</v>
       </c>
@@ -3565,75 +3931,75 @@
         <v>36</v>
       </c>
       <c r="H34" s="193" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="326"/>
-      <c r="B35" s="331"/>
+      <c r="A35" s="342"/>
+      <c r="B35" s="347"/>
       <c r="C35" s="188" t="s">
+        <v>213</v>
+      </c>
+      <c r="D35" s="190" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="190" t="s">
+        <v>216</v>
+      </c>
+      <c r="F35" s="132" t="s">
+        <v>198</v>
+      </c>
+      <c r="G35" s="132" t="s">
+        <v>199</v>
+      </c>
+      <c r="H35" s="194"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="342"/>
+      <c r="B36" s="347"/>
+      <c r="C36" s="188" t="s">
         <v>214</v>
       </c>
-      <c r="D35" s="190" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="190" t="s">
-        <v>217</v>
-      </c>
-      <c r="F35" s="132" t="s">
+      <c r="D36" s="190" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="192" t="s">
+        <v>216</v>
+      </c>
+      <c r="F36" s="136" t="s">
+        <v>198</v>
+      </c>
+      <c r="G36" s="189" t="s">
         <v>199</v>
       </c>
-      <c r="G35" s="132" t="s">
-        <v>200</v>
-      </c>
-      <c r="H35" s="194"/>
-    </row>
-    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="326"/>
-      <c r="B36" s="331"/>
-      <c r="C36" s="188" t="s">
+      <c r="H36" s="194"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="342"/>
+      <c r="B37" s="310"/>
+      <c r="C37" s="165" t="s">
         <v>215</v>
       </c>
-      <c r="D36" s="190" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="192" t="s">
-        <v>217</v>
-      </c>
-      <c r="F36" s="136" t="s">
+      <c r="D37" s="191" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="164" t="s">
+        <v>216</v>
+      </c>
+      <c r="F37" s="190" t="s">
+        <v>198</v>
+      </c>
+      <c r="G37" s="190" t="s">
         <v>199</v>
       </c>
-      <c r="G36" s="189" t="s">
-        <v>200</v>
-      </c>
-      <c r="H36" s="194"/>
-    </row>
-    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="326"/>
-      <c r="B37" s="294"/>
-      <c r="C37" s="165" t="s">
-        <v>216</v>
-      </c>
-      <c r="D37" s="191" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="164" t="s">
-        <v>217</v>
-      </c>
-      <c r="F37" s="190" t="s">
-        <v>199</v>
-      </c>
-      <c r="G37" s="190" t="s">
-        <v>200</v>
-      </c>
       <c r="H37" s="195"/>
     </row>
     <row r="38" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="326"/>
-      <c r="B38" s="293" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" s="302" t="s">
+      <c r="A38" s="342"/>
+      <c r="B38" s="309" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="318" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="125" t="s">
@@ -3651,9 +4017,9 @@
       <c r="H38" s="127"/>
     </row>
     <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="326"/>
-      <c r="B39" s="294"/>
-      <c r="C39" s="302"/>
+      <c r="A39" s="342"/>
+      <c r="B39" s="310"/>
+      <c r="C39" s="318"/>
       <c r="D39" s="132" t="s">
         <v>18</v>
       </c>
@@ -3669,12 +4035,12 @@
       <c r="H39" s="135"/>
     </row>
     <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="327"/>
+      <c r="A40" s="343"/>
       <c r="B40" s="170" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C40" s="169" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D40" s="136" t="s">
         <v>18</v>
@@ -3697,17 +4063,17 @@
     </row>
     <row r="41" spans="1:13" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="108"/>
       <c r="C41" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="26" t="s">
         <v>42</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>43</v>
       </c>
       <c r="F41" s="26" t="s">
         <v>16</v>
@@ -3716,15 +4082,15 @@
         <v>36</v>
       </c>
       <c r="H41" s="199" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="332" t="s">
+      <c r="A42" s="348" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="174"/>
-      <c r="C42" s="348" t="s">
+      <c r="C42" s="364" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="63" t="s">
@@ -3742,9 +4108,9 @@
       <c r="H42" s="197"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="333"/>
+      <c r="A43" s="349"/>
       <c r="B43" s="174"/>
-      <c r="C43" s="349"/>
+      <c r="C43" s="365"/>
       <c r="D43" s="66" t="s">
         <v>18</v>
       </c>
@@ -3760,9 +4126,9 @@
       <c r="H43" s="198"/>
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="333"/>
+      <c r="A44" s="349"/>
       <c r="B44" s="174"/>
-      <c r="C44" s="348" t="s">
+      <c r="C44" s="364" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="63" t="s">
@@ -3780,9 +4146,9 @@
       <c r="H44" s="197"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="333"/>
+      <c r="A45" s="349"/>
       <c r="B45" s="174"/>
-      <c r="C45" s="349"/>
+      <c r="C45" s="365"/>
       <c r="D45" s="66" t="s">
         <v>18</v>
       </c>
@@ -3798,7 +4164,7 @@
       <c r="H45" s="198"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="333"/>
+      <c r="A46" s="349"/>
       <c r="B46" s="211"/>
       <c r="C46" s="212" t="s">
         <v>41</v>
@@ -3818,38 +4184,38 @@
       <c r="H46" s="216"/>
     </row>
     <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="334"/>
+      <c r="A47" s="350"/>
       <c r="B47" s="109"/>
       <c r="C47" s="70" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D47" s="69" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F47" s="69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G47" s="71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H47" s="72"/>
     </row>
     <row r="48" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="278" t="s">
-        <v>47</v>
+      <c r="A48" s="294" t="s">
+        <v>46</v>
       </c>
       <c r="B48" s="110"/>
-      <c r="C48" s="304" t="s">
+      <c r="C48" s="320" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F48" s="210" t="s">
         <v>6</v>
@@ -3860,14 +4226,14 @@
       <c r="H48" s="200"/>
     </row>
     <row r="49" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="278"/>
+      <c r="A49" s="294"/>
       <c r="B49" s="110"/>
-      <c r="C49" s="304"/>
+      <c r="C49" s="320"/>
       <c r="D49" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F49" s="16" t="s">
         <v>20</v>
@@ -3878,14 +4244,14 @@
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="278"/>
+      <c r="A50" s="294"/>
       <c r="B50" s="110"/>
-      <c r="C50" s="304"/>
+      <c r="C50" s="320"/>
       <c r="D50" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>15</v>
@@ -3896,16 +4262,16 @@
       <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="279"/>
+      <c r="A51" s="295"/>
       <c r="B51" s="175"/>
       <c r="C51" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51" s="42">
         <v>4</v>
       </c>
       <c r="E51" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F51" s="37" t="s">
         <v>15</v>
@@ -3916,14 +4282,14 @@
       <c r="H51" s="42"/>
     </row>
     <row r="52" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="299" t="s">
-        <v>54</v>
+      <c r="A52" s="315" t="s">
+        <v>53</v>
       </c>
       <c r="B52" s="111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" s="173" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="73" t="s">
         <v>18</v>
@@ -3938,16 +4304,16 @@
         <v>36</v>
       </c>
       <c r="H52" s="73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="300"/>
+      <c r="A53" s="316"/>
       <c r="B53" s="112" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53" s="76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D53" s="75" t="s">
         <v>18</v>
@@ -3962,22 +4328,22 @@
         <v>36</v>
       </c>
       <c r="H53" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="176"/>
       <c r="C54" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D54" s="43" t="s">
         <v>18</v>
       </c>
       <c r="E54" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F54" s="44" t="s">
         <v>16</v>
@@ -3986,24 +4352,24 @@
         <v>36</v>
       </c>
       <c r="H54" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="343" t="s">
-        <v>152</v>
-      </c>
-      <c r="B55" s="338" t="s">
-        <v>149</v>
-      </c>
-      <c r="C55" s="285" t="s">
+      <c r="A55" s="359" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" s="354" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="301" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="57" t="s">
         <v>58</v>
-      </c>
-      <c r="D55" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="57" t="s">
-        <v>59</v>
       </c>
       <c r="F55" s="58" t="s">
         <v>6</v>
@@ -4014,14 +4380,14 @@
       <c r="H55" s="57"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="344"/>
-      <c r="B56" s="339"/>
-      <c r="C56" s="286"/>
+      <c r="A56" s="360"/>
+      <c r="B56" s="355"/>
+      <c r="C56" s="302"/>
       <c r="D56" s="46" t="s">
         <v>18</v>
       </c>
       <c r="E56" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F56" s="47" t="s">
         <v>20</v>
@@ -4032,76 +4398,76 @@
       <c r="H56" s="46"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="344"/>
-      <c r="B57" s="339"/>
-      <c r="C57" s="287"/>
+      <c r="A57" s="360"/>
+      <c r="B57" s="355"/>
+      <c r="C57" s="303"/>
       <c r="D57" s="59" t="s">
         <v>18</v>
       </c>
       <c r="E57" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F57" s="60" t="s">
         <v>14</v>
       </c>
       <c r="G57" s="59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H57" s="59"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="344"/>
-      <c r="B58" s="340"/>
+      <c r="A58" s="360"/>
+      <c r="B58" s="356"/>
       <c r="C58" s="239" t="s">
+        <v>227</v>
+      </c>
+      <c r="D58" s="236" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="236" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" s="236" t="s">
+        <v>230</v>
+      </c>
+      <c r="G58" s="236" t="s">
+        <v>220</v>
+      </c>
+      <c r="H58" s="236"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="360"/>
+      <c r="B59" s="357"/>
+      <c r="C59" s="239" t="s">
         <v>228</v>
       </c>
-      <c r="D58" s="236" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="236" t="s">
-        <v>48</v>
-      </c>
-      <c r="F58" s="236" t="s">
-        <v>231</v>
-      </c>
-      <c r="G58" s="236" t="s">
-        <v>221</v>
-      </c>
-      <c r="H58" s="236"/>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="344"/>
-      <c r="B59" s="341"/>
-      <c r="C59" s="239" t="s">
+      <c r="D59" s="236" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="236" t="s">
         <v>229</v>
       </c>
-      <c r="D59" s="236" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="236" t="s">
+      <c r="F59" s="236" t="s">
         <v>230</v>
       </c>
-      <c r="F59" s="236" t="s">
-        <v>231</v>
-      </c>
       <c r="G59" s="236" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H59" s="236"/>
     </row>
     <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="344"/>
-      <c r="B60" s="338" t="s">
-        <v>150</v>
-      </c>
-      <c r="C60" s="285" t="s">
+      <c r="A60" s="360"/>
+      <c r="B60" s="354" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="301" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="57" t="s">
         <v>62</v>
-      </c>
-      <c r="D60" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="57" t="s">
-        <v>63</v>
       </c>
       <c r="F60" s="58" t="s">
         <v>21</v>
@@ -4112,28 +4478,28 @@
       <c r="H60" s="57"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="344"/>
-      <c r="B61" s="339"/>
-      <c r="C61" s="287"/>
+      <c r="A61" s="360"/>
+      <c r="B61" s="355"/>
+      <c r="C61" s="303"/>
       <c r="D61" s="59" t="s">
         <v>18</v>
       </c>
       <c r="E61" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F61" s="61" t="s">
         <v>14</v>
       </c>
       <c r="G61" s="59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H61" s="59"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="344"/>
-      <c r="B62" s="339"/>
+      <c r="A62" s="360"/>
+      <c r="B62" s="355"/>
       <c r="C62" s="172" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D62" s="240" t="s">
         <v>18</v>
@@ -4142,68 +4508,68 @@
         <v>31</v>
       </c>
       <c r="F62" s="243" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G62" s="62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H62" s="62"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="344"/>
-      <c r="B63" s="342"/>
+      <c r="A63" s="360"/>
+      <c r="B63" s="358"/>
       <c r="C63" s="172" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D63" s="240" t="s">
         <v>18</v>
       </c>
       <c r="E63" s="241" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F63" s="242" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G63" s="241" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H63" s="241"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="344"/>
+      <c r="A64" s="360"/>
       <c r="B64" s="245" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C64" s="62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D64" s="171" t="s">
         <v>18</v>
       </c>
       <c r="E64" s="62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F64" s="62" t="s">
         <v>14</v>
       </c>
       <c r="G64" s="62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H64" s="62"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="344"/>
+      <c r="A65" s="360"/>
       <c r="B65" s="246" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C65" s="177" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65" s="177" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="177" t="s">
         <v>101</v>
-      </c>
-      <c r="D65" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="177" t="s">
-        <v>102</v>
       </c>
       <c r="F65" s="62" t="s">
         <v>15</v>
@@ -4214,64 +4580,64 @@
       <c r="H65" s="177"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="344"/>
+      <c r="A66" s="360"/>
       <c r="B66" s="247" t="s">
+        <v>233</v>
+      </c>
+      <c r="C66" s="62" t="s">
         <v>234</v>
       </c>
-      <c r="C66" s="62" t="s">
+      <c r="D66" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="F66" s="242" t="s">
+        <v>198</v>
+      </c>
+      <c r="G66" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="H66" s="62"/>
+    </row>
+    <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="361"/>
+      <c r="B67" s="244" t="s">
+        <v>237</v>
+      </c>
+      <c r="C67" s="240" t="s">
         <v>235</v>
       </c>
-      <c r="D66" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="F66" s="242" t="s">
-        <v>199</v>
-      </c>
-      <c r="G66" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="H66" s="62"/>
-    </row>
-    <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="345"/>
-      <c r="B67" s="244" t="s">
-        <v>238</v>
-      </c>
-      <c r="C67" s="240" t="s">
+      <c r="D67" s="241" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="241" t="s">
         <v>236</v>
       </c>
-      <c r="D67" s="241" t="s">
-        <v>18</v>
-      </c>
-      <c r="E67" s="241" t="s">
-        <v>237</v>
-      </c>
       <c r="F67" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G67" s="241" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H67" s="241"/>
     </row>
     <row r="68" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="277" t="s">
-        <v>154</v>
+      <c r="A68" s="293" t="s">
+        <v>153</v>
       </c>
       <c r="B68" s="238" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C68" s="237" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D68" s="234" t="s">
         <v>18</v>
       </c>
       <c r="E68" s="234" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F68" s="235" t="s">
         <v>8</v>
@@ -4282,12 +4648,12 @@
       <c r="H68" s="234"/>
     </row>
     <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="278"/>
-      <c r="B69" s="288" t="s">
-        <v>196</v>
+      <c r="A69" s="294"/>
+      <c r="B69" s="304" t="s">
+        <v>195</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D69" s="42" t="s">
         <v>18</v>
@@ -4304,103 +4670,103 @@
       <c r="H69" s="42"/>
     </row>
     <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="278"/>
-      <c r="B70" s="289"/>
+      <c r="A70" s="294"/>
+      <c r="B70" s="305"/>
       <c r="C70" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="42" t="s">
         <v>68</v>
-      </c>
-      <c r="D70" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="42" t="s">
-        <v>69</v>
       </c>
       <c r="F70" s="37" t="s">
         <v>14</v>
       </c>
       <c r="G70" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H70" s="42"/>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="278"/>
-      <c r="B71" s="289"/>
+      <c r="A71" s="294"/>
+      <c r="B71" s="305"/>
       <c r="C71" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D71" s="42" t="s">
         <v>18</v>
       </c>
       <c r="E71" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F71" s="37" t="s">
         <v>16</v>
       </c>
       <c r="G71" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H71" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="278"/>
-      <c r="B72" s="290"/>
+      <c r="A72" s="294"/>
+      <c r="B72" s="306"/>
       <c r="C72" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="42" t="s">
         <v>73</v>
-      </c>
-      <c r="D72" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="42" t="s">
-        <v>74</v>
       </c>
       <c r="F72" s="37" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H72" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="279"/>
+      <c r="A73" s="295"/>
       <c r="B73" s="224" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C73" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="22" t="s">
         <v>70</v>
-      </c>
-      <c r="D73" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="22" t="s">
-        <v>71</v>
       </c>
       <c r="F73" s="15" t="s">
         <v>14</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H73" s="22"/>
     </row>
     <row r="74" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="314" t="s">
-        <v>160</v>
-      </c>
-      <c r="B74" s="312" t="s">
-        <v>155</v>
-      </c>
-      <c r="C74" s="310" t="s">
+      <c r="A74" s="330" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" s="328" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="326" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" s="78" t="s">
         <v>75</v>
-      </c>
-      <c r="D74" s="78" t="s">
-        <v>76</v>
       </c>
       <c r="E74" s="78" t="s">
         <v>31</v>
@@ -4412,18 +4778,18 @@
         <v>9</v>
       </c>
       <c r="H74" s="78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="315"/>
-      <c r="B75" s="313"/>
-      <c r="C75" s="311"/>
+      <c r="A75" s="331"/>
+      <c r="B75" s="329"/>
+      <c r="C75" s="327"/>
       <c r="D75" s="80" t="s">
         <v>18</v>
       </c>
       <c r="E75" s="80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F75" s="81" t="s">
         <v>15</v>
@@ -4434,34 +4800,34 @@
       <c r="H75" s="82"/>
     </row>
     <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="315"/>
+      <c r="A76" s="331"/>
       <c r="B76" s="222" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C76" s="83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D76" s="83" t="s">
         <v>18</v>
       </c>
       <c r="E76" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F76" s="84" t="s">
         <v>14</v>
       </c>
       <c r="G76" s="83" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H76" s="83"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="315"/>
+      <c r="A77" s="331"/>
       <c r="B77" s="223" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C77" s="83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D77" s="83" t="s">
         <v>18</v>
@@ -4473,17 +4839,17 @@
         <v>14</v>
       </c>
       <c r="G77" s="83" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H77" s="83"/>
     </row>
     <row r="78" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="315"/>
+      <c r="A78" s="331"/>
       <c r="B78" s="223" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C78" s="83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D78" s="83" t="s">
         <v>18</v>
@@ -4495,23 +4861,23 @@
         <v>14</v>
       </c>
       <c r="G78" s="83" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H78" s="83"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="316"/>
+      <c r="A79" s="332"/>
       <c r="B79" s="223" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C79" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="85" t="s">
         <v>81</v>
-      </c>
-      <c r="D79" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="85" t="s">
-        <v>82</v>
       </c>
       <c r="F79" s="86" t="s">
         <v>16</v>
@@ -4520,24 +4886,24 @@
         <v>36</v>
       </c>
       <c r="H79" s="85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="277" t="s">
+      <c r="A80" s="293" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="220" t="s">
         <v>161</v>
       </c>
-      <c r="B80" s="220" t="s">
-        <v>162</v>
-      </c>
       <c r="C80" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="42" t="s">
         <v>84</v>
-      </c>
-      <c r="D80" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" s="42" t="s">
-        <v>85</v>
       </c>
       <c r="F80" s="37" t="s">
         <v>21</v>
@@ -4548,12 +4914,12 @@
       <c r="H80" s="42"/>
     </row>
     <row r="81" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="279"/>
+      <c r="A81" s="295"/>
       <c r="B81" s="221" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D81" s="17" t="s">
         <v>18</v>
@@ -4568,18 +4934,18 @@
         <v>36</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="319" t="s">
-        <v>166</v>
-      </c>
-      <c r="B82" s="317" t="s">
-        <v>164</v>
+      <c r="A82" s="335" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" s="333" t="s">
+        <v>163</v>
       </c>
       <c r="C82" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D82" s="48" t="s">
         <v>18</v>
@@ -4596,34 +4962,34 @@
       <c r="H82" s="48"/>
     </row>
     <row r="83" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="320"/>
-      <c r="B83" s="318"/>
+      <c r="A83" s="336"/>
+      <c r="B83" s="334"/>
       <c r="C83" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D83" s="50" t="s">
         <v>18</v>
       </c>
       <c r="E83" s="50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F83" s="52" t="s">
         <v>15</v>
       </c>
       <c r="G83" s="50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H83" s="50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="321"/>
+      <c r="A84" s="337"/>
       <c r="B84" s="114" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C84" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D84" s="53" t="s">
         <v>18</v>
@@ -4640,12 +5006,12 @@
       <c r="H84" s="53"/>
     </row>
     <row r="85" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="277" t="s">
-        <v>167</v>
+      <c r="A85" s="293" t="s">
+        <v>166</v>
       </c>
       <c r="B85" s="179"/>
-      <c r="C85" s="268" t="s">
-        <v>92</v>
+      <c r="C85" s="284" t="s">
+        <v>91</v>
       </c>
       <c r="D85" s="39" t="s">
         <v>18</v>
@@ -4662,9 +5028,9 @@
       <c r="H85" s="38"/>
     </row>
     <row r="86" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="278"/>
+      <c r="A86" s="294"/>
       <c r="B86" s="180"/>
-      <c r="C86" s="269"/>
+      <c r="C86" s="285"/>
       <c r="D86" s="41" t="s">
         <v>18</v>
       </c>
@@ -4675,49 +5041,49 @@
         <v>16</v>
       </c>
       <c r="G86" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H86" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="279"/>
+      <c r="A87" s="295"/>
       <c r="B87" s="115"/>
       <c r="C87" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D87" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="D87" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E87" s="17" t="s">
-        <v>94</v>
       </c>
       <c r="F87" s="17" t="s">
         <v>16</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H87" s="202" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="280" t="s">
-        <v>168</v>
+      <c r="A88" s="296" t="s">
+        <v>167</v>
       </c>
       <c r="B88" s="219" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C88" s="87" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D88" s="88" t="s">
         <v>18</v>
       </c>
       <c r="E88" s="89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F88" s="89" t="s">
         <v>12</v>
@@ -4728,34 +5094,34 @@
       <c r="H88" s="201"/>
     </row>
     <row r="89" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="281"/>
+      <c r="A89" s="297"/>
       <c r="B89" s="219" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C89" s="178" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D89" s="90" t="s">
         <v>18</v>
       </c>
       <c r="E89" s="91" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F89" s="91" t="s">
         <v>14</v>
       </c>
       <c r="G89" s="90" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H89" s="91"/>
     </row>
     <row r="90" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="282"/>
+      <c r="A90" s="298"/>
       <c r="B90" s="219" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C90" s="87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D90" s="88" t="s">
         <v>18</v>
@@ -4772,20 +5138,20 @@
       <c r="H90" s="89"/>
     </row>
     <row r="91" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="335" t="s">
-        <v>174</v>
+      <c r="A91" s="351" t="s">
+        <v>173</v>
       </c>
       <c r="B91" s="218" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C91" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D91" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="42" t="s">
         <v>99</v>
-      </c>
-      <c r="D91" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E91" s="42" t="s">
-        <v>100</v>
       </c>
       <c r="F91" s="42" t="s">
         <v>12</v>
@@ -4796,18 +5162,18 @@
       <c r="H91" s="42"/>
     </row>
     <row r="92" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="336"/>
+      <c r="A92" s="352"/>
       <c r="B92" s="182" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C92" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="22" t="s">
         <v>103</v>
-      </c>
-      <c r="D92" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E92" s="22" t="s">
-        <v>104</v>
       </c>
       <c r="F92" s="42" t="s">
         <v>16</v>
@@ -4816,62 +5182,62 @@
         <v>36</v>
       </c>
       <c r="H92" s="232" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="337"/>
+      <c r="A93" s="353"/>
       <c r="B93" s="229" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C93" s="230" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D93" s="231" t="s">
         <v>18</v>
       </c>
       <c r="E93" s="202" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H93" s="202"/>
     </row>
     <row r="94" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="283" t="s">
+      <c r="A94" s="299" t="s">
+        <v>174</v>
+      </c>
+      <c r="B94" s="225" t="s">
         <v>175</v>
       </c>
-      <c r="B94" s="225" t="s">
-        <v>176</v>
-      </c>
       <c r="C94" s="226" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D94" s="227" t="s">
         <v>18</v>
       </c>
       <c r="E94" s="228" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F94" s="228" t="s">
         <v>14</v>
       </c>
       <c r="G94" s="227" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H94" s="228"/>
     </row>
     <row r="95" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="284"/>
+      <c r="A95" s="300"/>
       <c r="B95" s="116" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C95" s="92" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D95" s="93" t="s">
         <v>18</v>
@@ -4883,25 +5249,25 @@
         <v>14</v>
       </c>
       <c r="G95" s="93" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H95" s="94"/>
     </row>
     <row r="96" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="277" t="s">
-        <v>178</v>
+      <c r="A96" s="293" t="s">
+        <v>177</v>
       </c>
       <c r="B96" s="117" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C96" s="26" t="s">
+      <c r="D96" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" s="45" t="s">
         <v>109</v>
-      </c>
-      <c r="D96" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E96" s="45" t="s">
-        <v>110</v>
       </c>
       <c r="F96" s="22" t="s">
         <v>12</v>
@@ -4912,18 +5278,18 @@
       <c r="H96" s="43"/>
     </row>
     <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="278"/>
+      <c r="A97" s="294"/>
       <c r="B97" s="183" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C97" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D97" s="42" t="s">
         <v>18</v>
       </c>
       <c r="E97" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F97" s="42" t="s">
         <v>16</v>
@@ -4932,48 +5298,48 @@
         <v>36</v>
       </c>
       <c r="H97" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="279"/>
+      <c r="A98" s="295"/>
       <c r="B98" s="233" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D98" s="22" t="s">
         <v>18</v>
       </c>
       <c r="E98" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F98" s="22" t="s">
         <v>15</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H98" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="335" t="s">
-        <v>225</v>
+      <c r="A99" s="351" t="s">
+        <v>224</v>
       </c>
       <c r="B99" s="181" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C99" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D99" s="37" t="s">
         <v>18</v>
       </c>
       <c r="E99" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F99" s="42" t="s">
         <v>12</v>
@@ -4984,36 +5350,36 @@
       <c r="H99" s="42"/>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="279"/>
+      <c r="A100" s="295"/>
       <c r="B100" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="C100" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="D100" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E100" s="17" t="s">
-        <v>227</v>
-      </c>
       <c r="F100" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H100" s="17"/>
     </row>
     <row r="101" spans="1:8" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="277" t="s">
-        <v>253</v>
+      <c r="A101" s="293" t="s">
+        <v>252</v>
       </c>
       <c r="B101" s="176" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C101" s="248" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D101" s="248" t="s">
         <v>18</v>
@@ -5030,42 +5396,42 @@
       <c r="H101" s="250"/>
     </row>
     <row r="102" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="279"/>
+      <c r="A102" s="295"/>
       <c r="B102" s="113" t="s">
+        <v>253</v>
+      </c>
+      <c r="C102" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="C102" s="20" t="s">
+      <c r="D102" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="D102" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E102" s="17" t="s">
+      <c r="F102" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="G102" s="18" t="s">
         <v>256</v>
-      </c>
-      <c r="F102" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="G102" s="18" t="s">
-        <v>257</v>
       </c>
       <c r="H102" s="17"/>
     </row>
     <row r="103" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A103" s="29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B103" s="118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D103" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>12</v>
@@ -5076,36 +5442,36 @@
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="277" t="s">
-        <v>182</v>
+      <c r="A104" s="293" t="s">
+        <v>181</v>
       </c>
       <c r="B104" s="176" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C104" s="248" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D104" s="249" t="s">
         <v>18</v>
       </c>
       <c r="E104" s="250" t="s">
+        <v>219</v>
+      </c>
+      <c r="F104" s="250" t="s">
+        <v>230</v>
+      </c>
+      <c r="G104" s="249" t="s">
         <v>220</v>
       </c>
-      <c r="F104" s="250" t="s">
-        <v>231</v>
-      </c>
-      <c r="G104" s="249" t="s">
-        <v>221</v>
-      </c>
       <c r="H104" s="250"/>
     </row>
     <row r="105" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="279"/>
+      <c r="A105" s="295"/>
       <c r="B105" s="113" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D105" s="18" t="s">
         <v>18</v>
@@ -5123,19 +5489,19 @@
     </row>
     <row r="106" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A106" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B106" s="118" t="s">
         <v>183</v>
       </c>
-      <c r="B106" s="118" t="s">
-        <v>184</v>
-      </c>
       <c r="C106" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>15</v>
@@ -5147,19 +5513,19 @@
     </row>
     <row r="107" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A107" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B107" s="118" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D107" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>15</v>
@@ -5171,13 +5537,13 @@
     </row>
     <row r="108" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A108" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B108" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="B108" s="118" t="s">
-        <v>187</v>
-      </c>
       <c r="C108" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D108" s="14" t="s">
         <v>18</v>
@@ -5192,24 +5558,24 @@
         <v>36</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A109" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B109" s="118" t="s">
         <v>189</v>
       </c>
-      <c r="B109" s="118" t="s">
-        <v>190</v>
-      </c>
       <c r="C109" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D109" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>16</v>
@@ -5218,24 +5584,24 @@
         <v>36</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A110" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B110" s="118" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D110" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>16</v>
@@ -5244,50 +5610,50 @@
         <v>36</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A111" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B111" s="117" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F111" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A112" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B112" s="119" t="s">
         <v>179</v>
       </c>
-      <c r="B112" s="119" t="s">
-        <v>180</v>
-      </c>
       <c r="C112" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D112" s="44" t="s">
         <v>18</v>
       </c>
       <c r="E112" s="43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F112" s="43" t="s">
         <v>21</v>
@@ -5298,12 +5664,12 @@
       <c r="H112" s="43"/>
     </row>
     <row r="113" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="261" t="s">
-        <v>193</v>
+      <c r="A113" s="277" t="s">
+        <v>192</v>
       </c>
       <c r="B113" s="184"/>
-      <c r="C113" s="307" t="s">
-        <v>135</v>
+      <c r="C113" s="323" t="s">
+        <v>134</v>
       </c>
       <c r="D113" s="95" t="s">
         <v>18</v>
@@ -5318,13 +5684,13 @@
         <v>7</v>
       </c>
       <c r="H113" s="96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A114" s="262"/>
+      <c r="A114" s="278"/>
       <c r="B114" s="184"/>
-      <c r="C114" s="308"/>
+      <c r="C114" s="324"/>
       <c r="D114" s="97" t="s">
         <v>18</v>
       </c>
@@ -5338,18 +5704,18 @@
         <v>7</v>
       </c>
       <c r="H114" s="98" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A115" s="262"/>
+      <c r="A115" s="278"/>
       <c r="B115" s="184"/>
-      <c r="C115" s="308"/>
+      <c r="C115" s="324"/>
       <c r="D115" s="100" t="s">
         <v>18</v>
       </c>
       <c r="E115" s="99" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F115" s="99" t="s">
         <v>12</v>
@@ -5358,18 +5724,18 @@
         <v>22</v>
       </c>
       <c r="H115" s="99" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A116" s="262"/>
+      <c r="A116" s="278"/>
       <c r="B116" s="185"/>
-      <c r="C116" s="308"/>
+      <c r="C116" s="324"/>
       <c r="D116" s="100" t="s">
         <v>18</v>
       </c>
       <c r="E116" s="99" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F116" s="99" t="s">
         <v>14</v>
@@ -5378,40 +5744,40 @@
         <v>11</v>
       </c>
       <c r="H116" s="99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="278"/>
+      <c r="B117" s="186"/>
+      <c r="C117" s="325"/>
+      <c r="D117" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117" s="102" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A117" s="262"/>
-      <c r="B117" s="186"/>
-      <c r="C117" s="309"/>
-      <c r="D117" s="101" t="s">
-        <v>18</v>
-      </c>
-      <c r="E117" s="102" t="s">
-        <v>139</v>
       </c>
       <c r="F117" s="102" t="s">
         <v>16</v>
       </c>
       <c r="G117" s="101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H117" s="102" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="262"/>
+      <c r="A118" s="278"/>
       <c r="B118" s="186"/>
-      <c r="C118" s="259" t="s">
-        <v>140</v>
+      <c r="C118" s="275" t="s">
+        <v>139</v>
       </c>
       <c r="D118" s="103" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E118" s="104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F118" s="104" t="s">
         <v>14</v>
@@ -5420,98 +5786,98 @@
         <v>11</v>
       </c>
       <c r="H118" s="104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="262"/>
+      <c r="A119" s="278"/>
       <c r="B119" s="186"/>
-      <c r="C119" s="260"/>
+      <c r="C119" s="276"/>
       <c r="D119" s="105" t="s">
         <v>18</v>
       </c>
       <c r="E119" s="106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F119" s="106" t="s">
         <v>16</v>
       </c>
       <c r="G119" s="105" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H119" s="106" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="263"/>
+      <c r="A120" s="279"/>
       <c r="B120" s="187"/>
       <c r="C120" s="217" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D120" s="145" t="s">
         <v>18</v>
       </c>
       <c r="E120" s="146" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F120" s="146" t="s">
         <v>16</v>
       </c>
       <c r="G120" s="147" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H120" s="107" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="328" t="s">
-        <v>201</v>
+      <c r="A121" s="344" t="s">
+        <v>200</v>
       </c>
       <c r="B121" s="150"/>
       <c r="C121" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D121" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F121" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G121" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="G121" s="11" t="s">
-        <v>200</v>
-      </c>
       <c r="H121" s="19"/>
     </row>
     <row r="122" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="329"/>
+      <c r="A122" s="345"/>
       <c r="B122" s="151"/>
       <c r="C122" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F122" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G122" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G122" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="H122" s="2"/>
     </row>
     <row r="123" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="330"/>
+      <c r="A123" s="346"/>
       <c r="B123" s="153"/>
       <c r="C123" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D123" s="25" t="s">
         <v>18</v>
@@ -5520,172 +5886,172 @@
         <v>40</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G123" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H123" s="25"/>
     </row>
     <row r="124" spans="1:8" ht="18.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="328" t="s">
-        <v>209</v>
+      <c r="A124" s="344" t="s">
+        <v>208</v>
       </c>
       <c r="B124" s="150"/>
       <c r="C124" s="154" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D124" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E124" s="156" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F124" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G124" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="G124" s="11" t="s">
-        <v>200</v>
-      </c>
       <c r="H124" s="19"/>
     </row>
     <row r="125" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="329"/>
+      <c r="A125" s="345"/>
       <c r="B125" s="151"/>
       <c r="C125" s="155" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E125" s="157" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F125" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G125" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G125" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="H125" s="2"/>
     </row>
     <row r="126" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="330"/>
+      <c r="A126" s="346"/>
       <c r="B126" s="152"/>
       <c r="C126" s="149" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D126" s="149" t="s">
         <v>18</v>
       </c>
       <c r="E126" s="158" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F126" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="G126" s="148" t="s">
         <v>199</v>
-      </c>
-      <c r="G126" s="148" t="s">
-        <v>200</v>
       </c>
       <c r="H126" s="149"/>
     </row>
     <row r="127" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A127" s="160" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B127" s="162"/>
       <c r="C127" s="149" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D127" s="149" t="s">
         <v>18</v>
       </c>
       <c r="E127" s="158" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F127" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="G127" s="148" t="s">
         <v>199</v>
-      </c>
-      <c r="G127" s="148" t="s">
-        <v>200</v>
       </c>
       <c r="H127" s="149"/>
     </row>
     <row r="128" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A128" s="161" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B128" s="163"/>
       <c r="C128" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E128" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F128" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="G128" s="148" t="s">
         <v>199</v>
-      </c>
-      <c r="G128" s="148" t="s">
-        <v>200</v>
       </c>
       <c r="H128" s="20"/>
     </row>
     <row r="129" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A129" s="160" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B129" s="162"/>
       <c r="C129" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H129" s="6"/>
     </row>
     <row r="130" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="305" t="s">
-        <v>243</v>
+      <c r="A130" s="321" t="s">
+        <v>242</v>
       </c>
       <c r="B130" s="251" t="s">
+        <v>267</v>
+      </c>
+      <c r="C130" s="250" t="s">
+        <v>264</v>
+      </c>
+      <c r="D130" s="248" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130" s="248" t="s">
+        <v>266</v>
+      </c>
+      <c r="F130" s="248" t="s">
+        <v>230</v>
+      </c>
+      <c r="G130" s="248" t="s">
+        <v>256</v>
+      </c>
+      <c r="H130" s="248"/>
+    </row>
+    <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="322"/>
+      <c r="B131" s="252" t="s">
         <v>268</v>
       </c>
-      <c r="C130" s="250" t="s">
+      <c r="C131" s="17" t="s">
         <v>265</v>
-      </c>
-      <c r="D130" s="248" t="s">
-        <v>18</v>
-      </c>
-      <c r="E130" s="248" t="s">
-        <v>267</v>
-      </c>
-      <c r="F130" s="248" t="s">
-        <v>231</v>
-      </c>
-      <c r="G130" s="248" t="s">
-        <v>257</v>
-      </c>
-      <c r="H130" s="248"/>
-    </row>
-    <row r="131" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="306"/>
-      <c r="B131" s="252" t="s">
-        <v>269</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>266</v>
       </c>
       <c r="D131" s="20" t="s">
         <v>18</v>
@@ -5694,64 +6060,64 @@
         <v>34</v>
       </c>
       <c r="F131" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G131" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H131" s="20"/>
     </row>
     <row r="132" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A132" s="159" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B132" s="163"/>
       <c r="C132" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G132" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H132" s="3"/>
     </row>
     <row r="133" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A133" s="159" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B133" s="163"/>
       <c r="C133" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G133" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H133" s="3"/>
     </row>
     <row r="134" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A134" s="159" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B134" s="163"/>
       <c r="C134" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>18</v>
@@ -5760,98 +6126,98 @@
         <v>33</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G134" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H134" s="3"/>
     </row>
     <row r="135" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A135" s="159" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B135" s="163"/>
       <c r="C135" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G135" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H135" s="3"/>
     </row>
     <row r="136" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A136" s="159" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B136" s="163"/>
       <c r="C136" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G136" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H136" s="3"/>
     </row>
     <row r="137" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A137" s="159" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B137" s="163"/>
       <c r="C137" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G137" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A138" s="159" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B138" s="163"/>
       <c r="C138" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E138" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="F138" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G138" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H138" s="3"/>
     </row>
@@ -6852,10 +7218,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6606E4FC-447B-4C4B-8667-76C225606924}">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6869,12 +7235,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="B2" s="253" t="s">
         <v>271</v>
@@ -6882,608 +7248,976 @@
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="237" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="253" t="s">
-        <v>272</v>
+        <v>234</v>
+      </c>
+      <c r="B3" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="253" t="s">
-        <v>273</v>
+        <v>250</v>
+      </c>
+      <c r="B4" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="253" t="s">
-        <v>274</v>
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="253" t="s">
-        <v>275</v>
+      <c r="A6" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="253" t="s">
-        <v>276</v>
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>105</v>
+      <c r="A8" s="15" t="s">
+        <v>257</v>
       </c>
       <c r="B8" s="253" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="253" t="s">
-        <v>278</v>
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10" s="253" t="s">
-        <v>279</v>
+      <c r="A10" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="253" t="s">
-        <v>280</v>
+      <c r="B11" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="253" t="s">
-        <v>281</v>
+      <c r="A12" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B13" s="253" t="s">
-        <v>282</v>
+      <c r="A13" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>213</v>
-      </c>
-      <c r="B14" s="253" t="s">
-        <v>283</v>
+      <c r="A14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="B15" s="253" t="s">
-        <v>284</v>
+      <c r="A15" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>240</v>
+        <v>370</v>
       </c>
       <c r="B16" s="253" t="s">
-        <v>285</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="248" t="s">
-        <v>241</v>
-      </c>
-      <c r="B17" s="253" t="s">
-        <v>286</v>
+      <c r="A17" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B18" s="253" t="s">
-        <v>287</v>
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B19" s="254" t="s">
-        <v>288</v>
+      <c r="A19" s="248" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="269" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
-        <v>289</v>
+      <c r="B20" s="254" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" t="s">
-        <v>292</v>
+        <v>108</v>
+      </c>
+      <c r="B23" s="253" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" t="s">
-        <v>294</v>
+      <c r="A25" s="270" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="253" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="B26" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="B27" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" t="s">
-        <v>298</v>
+      <c r="A29" s="270" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="269" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" t="s">
-        <v>299</v>
+      <c r="A30" s="270" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="253" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" t="s">
-        <v>300</v>
+      <c r="A31" s="270" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31" s="253" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" t="s">
-        <v>135</v>
+        <v>258</v>
+      </c>
+      <c r="B32" s="254" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" t="s">
-        <v>301</v>
+        <v>239</v>
+      </c>
+      <c r="B33" s="253" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
-        <v>116</v>
+        <v>213</v>
       </c>
       <c r="B34" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
-        <v>119</v>
+        <v>261</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="B37" t="s">
-        <v>304</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" t="s">
-        <v>305</v>
+        <v>113</v>
+      </c>
+      <c r="B38" s="253" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>140</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
-        <v>65</v>
+        <v>215</v>
       </c>
       <c r="B40" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
-        <v>96</v>
+        <v>265</v>
       </c>
       <c r="B41" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
-        <v>70</v>
+        <v>227</v>
       </c>
       <c r="B42" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" t="s">
-        <v>310</v>
+      <c r="A44" s="270" t="s">
+        <v>210</v>
+      </c>
+      <c r="B44" s="253" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B50" t="s">
-        <v>315</v>
+        <v>131</v>
+      </c>
+      <c r="B50" s="253" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
-        <v>112</v>
+        <v>231</v>
       </c>
       <c r="B51" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="B52" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="B53" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
-        <v>203</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
-        <v>206</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="B56" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="B57" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>323</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B60" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="B61" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B62" t="s">
-        <v>327</v>
+      <c r="A62" s="270" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" s="253" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="B63" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B64" t="s">
-        <v>329</v>
+        <v>67</v>
+      </c>
+      <c r="B64" s="253" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
-        <v>229</v>
+        <v>95</v>
       </c>
       <c r="B66" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B67" t="s">
-        <v>332</v>
+      <c r="A67" s="270" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="253" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B68" t="s">
-        <v>333</v>
+      <c r="A68" s="270" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="253" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
-        <v>251</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B70" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
-        <v>255</v>
+        <v>202</v>
       </c>
       <c r="B71" t="s">
-        <v>255</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B72" t="s">
-        <v>336</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
-        <v>260</v>
+        <v>44</v>
       </c>
       <c r="B73" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
-        <v>264</v>
+        <v>201</v>
       </c>
       <c r="B74" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B75" t="s">
-        <v>339</v>
+        <v>48</v>
+      </c>
+      <c r="B75" s="253" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="B76" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="43" t="s">
-        <v>266</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>341</v>
-      </c>
-    </row>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B80" s="253" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="B81" s="253" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="B82" s="253" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="B83" s="253" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B84" s="253" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="173" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85" s="253" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="B86" s="253" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="B87" s="253" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" s="253" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89" s="253" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" s="253" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B91" s="253" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" s="253" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93" s="253" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="217" t="s">
+        <v>141</v>
+      </c>
+      <c r="B94" s="253" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B95" s="253" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B96" s="253" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B97" s="254" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADEA23E-E81E-4AF5-920B-9A516112A0D6}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.90625" style="255" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.36328125" style="255" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="256" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" s="256" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" s="256" t="s">
+        <v>353</v>
+      </c>
+      <c r="D1" s="255" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="257" t="s">
+        <v>341</v>
+      </c>
+      <c r="B2" s="257" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="263"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="257" t="s">
+        <v>342</v>
+      </c>
+      <c r="B3" s="257" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="263"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="257" t="s">
+        <v>347</v>
+      </c>
+      <c r="B4" s="257" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="263"/>
+    </row>
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="265" t="s">
+        <v>373</v>
+      </c>
+      <c r="B5" s="265" t="s">
+        <v>350</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="263" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="257" t="s">
+        <v>358</v>
+      </c>
+      <c r="B6" s="257" t="s">
+        <v>358</v>
+      </c>
+      <c r="C6" s="261" t="s">
+        <v>357</v>
+      </c>
+      <c r="D6" s="263" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="257" t="s">
+        <v>376</v>
+      </c>
+      <c r="B7" s="257" t="s">
+        <v>356</v>
+      </c>
+      <c r="C7" s="260" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" s="263" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="257" t="s">
+        <v>346</v>
+      </c>
+      <c r="B8" s="257" t="s">
+        <v>346</v>
+      </c>
+      <c r="C8" s="261"/>
+      <c r="D8" s="263"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="257" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9" s="257" t="s">
+        <v>345</v>
+      </c>
+      <c r="C9" s="261"/>
+      <c r="D9" s="263"/>
+    </row>
+    <row r="10" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="266" t="s">
+        <v>344</v>
+      </c>
+      <c r="B10" s="266" t="s">
+        <v>344</v>
+      </c>
+      <c r="C10" s="261"/>
+      <c r="D10" s="268" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="267" t="s">
+        <v>374</v>
+      </c>
+      <c r="B11" s="267" t="s">
+        <v>352</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="268" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="259" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12" s="259" t="s">
+        <v>348</v>
+      </c>
+      <c r="C12" s="261"/>
+      <c r="D12" s="263"/>
+    </row>
+    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="257" t="s">
+        <v>343</v>
+      </c>
+      <c r="B13" s="257" t="s">
+        <v>354</v>
+      </c>
+      <c r="C13" s="260" t="s">
+        <v>343</v>
+      </c>
+      <c r="D13" s="263" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="258" t="s">
+        <v>375</v>
+      </c>
+      <c r="B14" s="258" t="s">
+        <v>355</v>
+      </c>
+      <c r="C14" s="261"/>
+      <c r="D14" s="264" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" s="258" t="s">
+        <v>361</v>
+      </c>
+      <c r="B15" s="258" t="s">
+        <v>361</v>
+      </c>
+      <c r="C15" s="262" t="s">
+        <v>362</v>
+      </c>
+      <c r="D15" s="263" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>